--- a/Text_Functions_Case.xlsx
+++ b/Text_Functions_Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13996E1B-D0C8-42D7-BF73-33DF55F56BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1803945F-5A4B-4CBF-9EC4-F7A8D871E389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D370DF4-3C71-4D6D-AE9D-E6E375992910}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="232">
   <si>
     <t>Case Author</t>
   </si>
@@ -754,6 +754,9 @@
   </si>
   <si>
     <t>elpmaxE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d-NxycY_fYQ</t>
   </si>
 </sst>
 </file>
@@ -1716,8 +1719,8 @@
   </sheetPr>
   <dimension ref="A1:K290"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.4"/>
@@ -2060,7 +2063,10 @@
       <c r="D32" s="23">
         <v>4</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="5" t="str">
+        <f>IF(H32="Left",LEFT(G32,1),RIGHT(G32,1))</f>
+        <v>P</v>
+      </c>
       <c r="G32" s="24" t="s">
         <v>30</v>
       </c>
@@ -2081,7 +2087,10 @@
       <c r="D33" s="23">
         <v>4</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="5" t="str">
+        <f t="shared" ref="E33:E41" si="0">IF(H33="Left",LEFT(G33,1),RIGHT(G33,1))</f>
+        <v>C</v>
+      </c>
       <c r="G33" s="24" t="s">
         <v>31</v>
       </c>
@@ -2102,7 +2111,10 @@
       <c r="D34" s="23">
         <v>4</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>y</v>
+      </c>
       <c r="G34" s="24" t="s">
         <v>32</v>
       </c>
@@ -2123,7 +2135,10 @@
       <c r="D35" s="23">
         <v>4</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
       <c r="G35" s="24" t="s">
         <v>33</v>
       </c>
@@ -2144,7 +2159,10 @@
       <c r="D36" s="23">
         <v>4</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>d</v>
+      </c>
       <c r="G36" s="24" t="s">
         <v>34</v>
       </c>
@@ -2165,7 +2183,10 @@
       <c r="D37" s="23">
         <v>4</v>
       </c>
-      <c r="E37" s="5"/>
+      <c r="E37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>t</v>
+      </c>
       <c r="G37" s="24" t="s">
         <v>35</v>
       </c>
@@ -2186,7 +2207,10 @@
       <c r="D38" s="23">
         <v>4</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="E38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
+      </c>
       <c r="G38" s="24" t="s">
         <v>36</v>
       </c>
@@ -2207,7 +2231,10 @@
       <c r="D39" s="23">
         <v>4</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="E39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
       <c r="G39" s="24" t="s">
         <v>37</v>
       </c>
@@ -2228,7 +2255,10 @@
       <c r="D40" s="23">
         <v>4</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="E40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
       <c r="G40" s="24" t="s">
         <v>38</v>
       </c>
@@ -2249,7 +2279,10 @@
       <c r="D41" s="23">
         <v>4</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="E41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>y</v>
+      </c>
       <c r="G41" s="24" t="s">
         <v>39</v>
       </c>
@@ -2283,7 +2316,7 @@
       </c>
       <c r="E43" s="48" t="str">
         <f>_xlfn.TEXTJOIN(";",FALSE,E32:E41)</f>
-        <v>;;;;;;;;;</v>
+        <v>P;C;y;F;d;t;M;D;A;y</v>
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
@@ -2409,7 +2442,10 @@
       <c r="D57" s="23">
         <v>5</v>
       </c>
-      <c r="E57" s="5"/>
+      <c r="E57" s="5" t="str">
+        <f>MID(G57,H57,I57)</f>
+        <v>ail</v>
+      </c>
       <c r="G57" s="24" t="s">
         <v>47</v>
       </c>
@@ -2430,7 +2466,10 @@
       <c r="D58" s="23">
         <v>5</v>
       </c>
-      <c r="E58" s="5"/>
+      <c r="E58" s="5" t="str">
+        <f t="shared" ref="E58:E76" si="1">MID(G58,H58,I58)</f>
+        <v>Adven</v>
+      </c>
       <c r="G58" s="24" t="s">
         <v>48</v>
       </c>
@@ -2451,7 +2490,10 @@
       <c r="D59" s="23">
         <v>5</v>
       </c>
-      <c r="E59" s="5"/>
+      <c r="E59" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>room</v>
+      </c>
       <c r="G59" s="24" t="s">
         <v>49</v>
       </c>
@@ -2472,7 +2514,10 @@
       <c r="D60" s="23">
         <v>5</v>
       </c>
-      <c r="E60" s="5"/>
+      <c r="E60" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>mpagne</v>
+      </c>
       <c r="G60" s="24" t="s">
         <v>50</v>
       </c>
@@ -2493,7 +2538,10 @@
       <c r="D61" s="23">
         <v>5</v>
       </c>
-      <c r="E61" s="5"/>
+      <c r="E61" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>utter</v>
+      </c>
       <c r="G61" s="24" t="s">
         <v>51</v>
       </c>
@@ -2514,7 +2562,10 @@
       <c r="D62" s="23">
         <v>5</v>
       </c>
-      <c r="E62" s="5"/>
+      <c r="E62" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>flo</v>
+      </c>
       <c r="G62" s="24" t="s">
         <v>52</v>
       </c>
@@ -2535,7 +2586,10 @@
       <c r="D63" s="23">
         <v>5</v>
       </c>
-      <c r="E63" s="5"/>
+      <c r="E63" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>an</v>
+      </c>
       <c r="G63" s="24" t="s">
         <v>53</v>
       </c>
@@ -2556,7 +2610,10 @@
       <c r="D64" s="23">
         <v>5</v>
       </c>
-      <c r="E64" s="5"/>
+      <c r="E64" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
       <c r="G64" s="24" t="s">
         <v>54</v>
       </c>
@@ -2577,7 +2634,10 @@
       <c r="D65" s="23">
         <v>5</v>
       </c>
-      <c r="E65" s="5"/>
+      <c r="E65" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>on</v>
+      </c>
       <c r="G65" s="24" t="s">
         <v>55</v>
       </c>
@@ -2598,7 +2658,10 @@
       <c r="D66" s="23">
         <v>5</v>
       </c>
-      <c r="E66" s="5"/>
+      <c r="E66" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>ipmen</v>
+      </c>
       <c r="G66" s="24" t="s">
         <v>56</v>
       </c>
@@ -2619,7 +2682,10 @@
       <c r="D67" s="23">
         <v>5</v>
       </c>
-      <c r="E67" s="5"/>
+      <c r="E67" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>owle</v>
+      </c>
       <c r="G67" s="24" t="s">
         <v>57</v>
       </c>
@@ -2641,7 +2707,10 @@
       <c r="D68" s="23">
         <v>5</v>
       </c>
-      <c r="E68" s="5"/>
+      <c r="E68" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>et</v>
+      </c>
       <c r="G68" s="24" t="s">
         <v>58</v>
       </c>
@@ -2663,7 +2732,10 @@
       <c r="D69" s="23">
         <v>5</v>
       </c>
-      <c r="E69" s="5"/>
+      <c r="E69" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>ncho</v>
+      </c>
       <c r="G69" s="24" t="s">
         <v>59</v>
       </c>
@@ -2685,7 +2757,10 @@
       <c r="D70" s="23">
         <v>5</v>
       </c>
-      <c r="E70" s="5"/>
+      <c r="E70" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Ove</v>
+      </c>
       <c r="G70" s="24" t="s">
         <v>60</v>
       </c>
@@ -2707,7 +2782,10 @@
       <c r="D71" s="23">
         <v>5</v>
       </c>
-      <c r="E71" s="5"/>
+      <c r="E71" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>hou</v>
+      </c>
       <c r="G71" s="24" t="s">
         <v>61</v>
       </c>
@@ -2729,7 +2807,10 @@
       <c r="D72" s="23">
         <v>5</v>
       </c>
-      <c r="E72" s="5"/>
+      <c r="E72" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>aterfa</v>
+      </c>
       <c r="G72" s="24" t="s">
         <v>62</v>
       </c>
@@ -2751,7 +2832,10 @@
       <c r="D73" s="23">
         <v>5</v>
       </c>
-      <c r="E73" s="5"/>
+      <c r="E73" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Revolut</v>
+      </c>
       <c r="G73" s="24" t="s">
         <v>63</v>
       </c>
@@ -2773,7 +2857,10 @@
       <c r="D74" s="23">
         <v>5</v>
       </c>
-      <c r="E74" s="5"/>
+      <c r="E74" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>angerous</v>
+      </c>
       <c r="G74" s="24" t="s">
         <v>64</v>
       </c>
@@ -2795,7 +2882,10 @@
       <c r="D75" s="23">
         <v>5</v>
       </c>
-      <c r="E75" s="5"/>
+      <c r="E75" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>sthet</v>
+      </c>
       <c r="G75" s="24" t="s">
         <v>65</v>
       </c>
@@ -2817,7 +2907,10 @@
       <c r="D76" s="23">
         <v>5</v>
       </c>
-      <c r="E76" s="5"/>
+      <c r="E76" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>hari</v>
+      </c>
       <c r="G76" s="24" t="s">
         <v>66</v>
       </c>
@@ -2852,7 +2945,7 @@
       </c>
       <c r="E78" s="48" t="str">
         <f>_xlfn.TEXTJOIN(";",FALSE,E57:E76)</f>
-        <v>;;;;;;;;;;;;;;;;;;;</v>
+        <v>ail;Adven;room;mpagne;utter;flo;an;F;on;ipmen;owle;et;ncho;Ove;hou;aterfa;Revolut;angerous;sthet;hari</v>
       </c>
       <c r="G78" s="46"/>
       <c r="H78" s="47"/>
@@ -2946,6 +3039,9 @@
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="12"/>
+      <c r="G89" s="6" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="90" spans="2:8" ht="15" customHeight="1">
       <c r="B90" s="18" t="s">
@@ -3040,7 +3136,10 @@
       <c r="D98" s="23">
         <v>6</v>
       </c>
-      <c r="E98" s="5"/>
+      <c r="E98" s="5" t="str" cm="1">
+        <f t="array" ref="E98">INDEX(_xlfn.TEXTSPLIT(G98," "),H98)</f>
+        <v>She</v>
+      </c>
       <c r="G98" s="24" t="s">
         <v>70</v>
       </c>
@@ -3058,7 +3157,10 @@
       <c r="D99" s="23">
         <v>6</v>
       </c>
-      <c r="E99" s="5"/>
+      <c r="E99" s="5" t="str" cm="1">
+        <f t="array" ref="E99">INDEX(_xlfn.TEXTSPLIT(G99," "),H99)</f>
+        <v>forgot</v>
+      </c>
       <c r="G99" s="24" t="s">
         <v>71</v>
       </c>
@@ -3076,7 +3178,10 @@
       <c r="D100" s="23">
         <v>6</v>
       </c>
-      <c r="E100" s="5"/>
+      <c r="E100" s="5" t="str" cm="1">
+        <f t="array" ref="E100">INDEX(_xlfn.TEXTSPLIT(G100," "),H100)</f>
+        <v>slept</v>
+      </c>
       <c r="G100" s="24" t="s">
         <v>72</v>
       </c>
@@ -3094,7 +3199,10 @@
       <c r="D101" s="23">
         <v>6</v>
       </c>
-      <c r="E101" s="5"/>
+      <c r="E101" s="5" t="str" cm="1">
+        <f t="array" ref="E101">INDEX(_xlfn.TEXTSPLIT(G101," "),H101)</f>
+        <v>loud.</v>
+      </c>
       <c r="G101" s="24" t="s">
         <v>73</v>
       </c>
@@ -3112,7 +3220,10 @@
       <c r="D102" s="23">
         <v>6</v>
       </c>
-      <c r="E102" s="5"/>
+      <c r="E102" s="5" t="str" cm="1">
+        <f t="array" ref="E102">INDEX(_xlfn.TEXTSPLIT(G102," "),H102)</f>
+        <v>storm</v>
+      </c>
       <c r="G102" s="24" t="s">
         <v>74</v>
       </c>
@@ -3130,7 +3241,10 @@
       <c r="D103" s="23">
         <v>6</v>
       </c>
-      <c r="E103" s="5"/>
+      <c r="E103" s="5" t="str" cm="1">
+        <f t="array" ref="E103">INDEX(_xlfn.TEXTSPLIT(G103," "),H103)</f>
+        <v>She</v>
+      </c>
       <c r="G103" s="24" t="s">
         <v>75</v>
       </c>
@@ -3148,7 +3262,10 @@
       <c r="D104" s="23">
         <v>6</v>
       </c>
-      <c r="E104" s="5"/>
+      <c r="E104" s="5" t="str" cm="1">
+        <f t="array" ref="E104">INDEX(_xlfn.TEXTSPLIT(G104," "),H104)</f>
+        <v>to</v>
+      </c>
       <c r="G104" s="24" t="s">
         <v>76</v>
       </c>
@@ -3166,7 +3283,10 @@
       <c r="D105" s="23">
         <v>6</v>
       </c>
-      <c r="E105" s="5"/>
+      <c r="E105" s="5" t="str" cm="1">
+        <f t="array" ref="E105">INDEX(_xlfn.TEXTSPLIT(G105," "),H105)</f>
+        <v>blue.</v>
+      </c>
       <c r="G105" s="24" t="s">
         <v>77</v>
       </c>
@@ -3184,7 +3304,10 @@
       <c r="D106" s="23">
         <v>6</v>
       </c>
-      <c r="E106" s="5"/>
+      <c r="E106" s="5" t="str" cm="1">
+        <f t="array" ref="E106">INDEX(_xlfn.TEXTSPLIT(G106," "),H106)</f>
+        <v>shone</v>
+      </c>
       <c r="G106" s="24" t="s">
         <v>78</v>
       </c>
@@ -3202,7 +3325,10 @@
       <c r="D107" s="23">
         <v>6</v>
       </c>
-      <c r="E107" s="5"/>
+      <c r="E107" s="5" t="str" cm="1">
+        <f t="array" ref="E107">INDEX(_xlfn.TEXTSPLIT(G107," "),H107)</f>
+        <v>baked</v>
+      </c>
       <c r="G107" s="24" t="s">
         <v>79</v>
       </c>
@@ -3220,7 +3346,10 @@
       <c r="D108" s="23">
         <v>6</v>
       </c>
-      <c r="E108" s="5"/>
+      <c r="E108" s="5" t="str" cm="1">
+        <f t="array" ref="E108">INDEX(_xlfn.TEXTSPLIT(G108," "),H108)</f>
+        <v>The</v>
+      </c>
       <c r="G108" s="24" t="s">
         <v>80</v>
       </c>
@@ -3238,7 +3367,10 @@
       <c r="D109" s="23">
         <v>6</v>
       </c>
-      <c r="E109" s="5"/>
+      <c r="E109" s="5" t="str" cm="1">
+        <f t="array" ref="E109">INDEX(_xlfn.TEXTSPLIT(G109," "),H109)</f>
+        <v>wore</v>
+      </c>
       <c r="G109" s="24" t="s">
         <v>81</v>
       </c>
@@ -3256,7 +3388,10 @@
       <c r="D110" s="23">
         <v>6</v>
       </c>
-      <c r="E110" s="5"/>
+      <c r="E110" s="5" t="str" cm="1">
+        <f t="array" ref="E110">INDEX(_xlfn.TEXTSPLIT(G110," "),H110)</f>
+        <v>built</v>
+      </c>
       <c r="G110" s="24" t="s">
         <v>82</v>
       </c>
@@ -3274,7 +3409,10 @@
       <c r="D111" s="23">
         <v>6</v>
       </c>
-      <c r="E111" s="5"/>
+      <c r="E111" s="5" t="str" cm="1">
+        <f t="array" ref="E111">INDEX(_xlfn.TEXTSPLIT(G111," "),H111)</f>
+        <v>clock</v>
+      </c>
       <c r="G111" s="24" t="s">
         <v>83</v>
       </c>
@@ -3292,7 +3430,10 @@
       <c r="D112" s="23">
         <v>6</v>
       </c>
-      <c r="E112" s="5"/>
+      <c r="E112" s="5" t="str" cm="1">
+        <f t="array" ref="E112">INDEX(_xlfn.TEXTSPLIT(G112," "),H112)</f>
+        <v>small</v>
+      </c>
       <c r="G112" s="24" t="s">
         <v>84</v>
       </c>
@@ -3310,7 +3451,10 @@
       <c r="D113" s="23">
         <v>6</v>
       </c>
-      <c r="E113" s="5"/>
+      <c r="E113" s="5" t="str" cm="1">
+        <f t="array" ref="E113">INDEX(_xlfn.TEXTSPLIT(G113," "),H113)</f>
+        <v>for</v>
+      </c>
       <c r="G113" s="24" t="s">
         <v>85</v>
       </c>
@@ -3328,7 +3472,10 @@
       <c r="D114" s="23">
         <v>6</v>
       </c>
-      <c r="E114" s="5"/>
+      <c r="E114" s="5" t="str" cm="1">
+        <f t="array" ref="E114">INDEX(_xlfn.TEXTSPLIT(G114," "),H114)</f>
+        <v>sweet</v>
+      </c>
       <c r="G114" s="24" t="s">
         <v>86</v>
       </c>
@@ -3346,7 +3493,10 @@
       <c r="D115" s="23">
         <v>6</v>
       </c>
-      <c r="E115" s="5"/>
+      <c r="E115" s="5" t="str" cm="1">
+        <f t="array" ref="E115">INDEX(_xlfn.TEXTSPLIT(G115," "),H115)</f>
+        <v>the</v>
+      </c>
       <c r="G115" s="24" t="s">
         <v>87</v>
       </c>
@@ -3364,7 +3514,10 @@
       <c r="D116" s="23">
         <v>6</v>
       </c>
-      <c r="E116" s="5"/>
+      <c r="E116" s="5" t="str" cm="1">
+        <f t="array" ref="E116">INDEX(_xlfn.TEXTSPLIT(G116," "),H116)</f>
+        <v>phone</v>
+      </c>
       <c r="G116" s="24" t="s">
         <v>88</v>
       </c>
@@ -3382,7 +3535,10 @@
       <c r="D117" s="23">
         <v>6</v>
       </c>
-      <c r="E117" s="5"/>
+      <c r="E117" s="5" t="str" cm="1">
+        <f t="array" ref="E117">INDEX(_xlfn.TEXTSPLIT(G117," "),H117)</f>
+        <v>smiled</v>
+      </c>
       <c r="G117" s="24" t="s">
         <v>89</v>
       </c>
@@ -3412,7 +3568,7 @@
       </c>
       <c r="E119" s="48" t="str">
         <f>_xlfn.TEXTJOIN(";",FALSE,E98:E117)</f>
-        <v>;;;;;;;;;;;;;;;;;;;</v>
+        <v>She;forgot;slept;loud.;storm;She;to;blue.;shone;baked;The;wore;built;clock;small;for;sweet;the;phone;smiled</v>
       </c>
       <c r="G119" s="34"/>
       <c r="H119" s="34"/>
@@ -3588,7 +3744,10 @@
       <c r="D138" s="23">
         <v>7</v>
       </c>
-      <c r="E138" s="5"/>
+      <c r="E138" s="5" t="str" cm="1">
+        <f t="array" ref="E138">_xlfn.SWITCH(H138, "Lower",LOWER(G138),"Proper",PROPER(G138),"Upper",UPPER(G138))</f>
+        <v>she danced with joy.</v>
+      </c>
       <c r="G138" s="24" t="s">
         <v>70</v>
       </c>
@@ -3606,7 +3765,10 @@
       <c r="D139" s="23">
         <v>7</v>
       </c>
-      <c r="E139" s="5"/>
+      <c r="E139" s="5" t="str" cm="1">
+        <f t="array" ref="E139">_xlfn.SWITCH(H139, "Lower",LOWER(G139),"Proper",PROPER(G139),"Upper",UPPER(G139))</f>
+        <v>he forgot his keys.</v>
+      </c>
       <c r="G139" s="24" t="s">
         <v>71</v>
       </c>
@@ -3624,7 +3786,10 @@
       <c r="D140" s="23">
         <v>7</v>
       </c>
-      <c r="E140" s="5"/>
+      <c r="E140" s="5" t="str" cm="1">
+        <f t="array" ref="E140">_xlfn.SWITCH(H140, "Lower",LOWER(G140),"Proper",PROPER(G140),"Upper",UPPER(G140))</f>
+        <v>the cat slept peacefully.</v>
+      </c>
       <c r="G140" s="24" t="s">
         <v>72</v>
       </c>
@@ -3642,7 +3807,10 @@
       <c r="D141" s="23">
         <v>7</v>
       </c>
-      <c r="E141" s="5"/>
+      <c r="E141" s="5" t="str" cm="1">
+        <f t="array" ref="E141">_xlfn.SWITCH(H141, "Lower",LOWER(G141),"Proper",PROPER(G141),"Upper",UPPER(G141))</f>
+        <v>We Laughed Out Loud.</v>
+      </c>
       <c r="G141" s="24" t="s">
         <v>73</v>
       </c>
@@ -3660,7 +3828,10 @@
       <c r="D142" s="23">
         <v>7</v>
       </c>
-      <c r="E142" s="5"/>
+      <c r="E142" s="5" t="str" cm="1">
+        <f t="array" ref="E142">_xlfn.SWITCH(H142, "Lower",LOWER(G142),"Proper",PROPER(G142),"Upper",UPPER(G142))</f>
+        <v>the storm passed quickly.</v>
+      </c>
       <c r="G142" s="24" t="s">
         <v>74</v>
       </c>
@@ -3678,7 +3849,10 @@
       <c r="D143" s="23">
         <v>7</v>
       </c>
-      <c r="E143" s="5"/>
+      <c r="E143" s="5" t="str" cm="1">
+        <f t="array" ref="E143">_xlfn.SWITCH(H143, "Lower",LOWER(G143),"Proper",PROPER(G143),"Upper",UPPER(G143))</f>
+        <v>SHE LOVES TO READ BOOKS.</v>
+      </c>
       <c r="G143" s="24" t="s">
         <v>75</v>
       </c>
@@ -3696,7 +3870,10 @@
       <c r="D144" s="23">
         <v>7</v>
       </c>
-      <c r="E144" s="5"/>
+      <c r="E144" s="5" t="str" cm="1">
+        <f t="array" ref="E144">_xlfn.SWITCH(H144, "Lower",LOWER(G144),"Proper",PROPER(G144),"Upper",UPPER(G144))</f>
+        <v>They Walked To The Park.</v>
+      </c>
       <c r="G144" s="24" t="s">
         <v>76</v>
       </c>
@@ -3714,7 +3891,10 @@
       <c r="D145" s="23">
         <v>7</v>
       </c>
-      <c r="E145" s="5"/>
+      <c r="E145" s="5" t="str" cm="1">
+        <f t="array" ref="E145">_xlfn.SWITCH(H145, "Lower",LOWER(G145),"Proper",PROPER(G145),"Upper",UPPER(G145))</f>
+        <v>He Painted The Fence Blue.</v>
+      </c>
       <c r="G145" s="24" t="s">
         <v>77</v>
       </c>
@@ -3732,7 +3912,10 @@
       <c r="D146" s="23">
         <v>7</v>
       </c>
-      <c r="E146" s="5"/>
+      <c r="E146" s="5" t="str" cm="1">
+        <f t="array" ref="E146">_xlfn.SWITCH(H146, "Lower",LOWER(G146),"Proper",PROPER(G146),"Upper",UPPER(G146))</f>
+        <v>THE STARS SHONE BRIGHTLY.</v>
+      </c>
       <c r="G146" s="24" t="s">
         <v>78</v>
       </c>
@@ -3750,7 +3933,10 @@
       <c r="D147" s="23">
         <v>7</v>
       </c>
-      <c r="E147" s="5"/>
+      <c r="E147" s="5" t="str" cm="1">
+        <f t="array" ref="E147">_xlfn.SWITCH(H147, "Lower",LOWER(G147),"Proper",PROPER(G147),"Upper",UPPER(G147))</f>
+        <v>we baked cookies together.</v>
+      </c>
       <c r="G147" s="24" t="s">
         <v>79</v>
       </c>
@@ -3768,7 +3954,10 @@
       <c r="D148" s="23">
         <v>7</v>
       </c>
-      <c r="E148" s="5"/>
+      <c r="E148" s="5" t="str" cm="1">
+        <f t="array" ref="E148">_xlfn.SWITCH(H148, "Lower",LOWER(G148),"Proper",PROPER(G148),"Upper",UPPER(G148))</f>
+        <v>The Dog Wagged Its Tail.</v>
+      </c>
       <c r="G148" s="24" t="s">
         <v>80</v>
       </c>
@@ -3786,7 +3975,10 @@
       <c r="D149" s="23">
         <v>7</v>
       </c>
-      <c r="E149" s="5"/>
+      <c r="E149" s="5" t="str" cm="1">
+        <f t="array" ref="E149">_xlfn.SWITCH(H149, "Lower",LOWER(G149),"Proper",PROPER(G149),"Upper",UPPER(G149))</f>
+        <v>She Wore A Red Dress.</v>
+      </c>
       <c r="G149" s="24" t="s">
         <v>81</v>
       </c>
@@ -3804,7 +3996,10 @@
       <c r="D150" s="23">
         <v>7</v>
       </c>
-      <c r="E150" s="5"/>
+      <c r="E150" s="5" t="str" cm="1">
+        <f t="array" ref="E150">_xlfn.SWITCH(H150, "Lower",LOWER(G150),"Proper",PROPER(G150),"Upper",UPPER(G150))</f>
+        <v>THE CHILD BUILT A SANDCASTLE.</v>
+      </c>
       <c r="G150" s="24" t="s">
         <v>82</v>
       </c>
@@ -3822,7 +4017,10 @@
       <c r="D151" s="23">
         <v>7</v>
       </c>
-      <c r="E151" s="5"/>
+      <c r="E151" s="5" t="str" cm="1">
+        <f t="array" ref="E151">_xlfn.SWITCH(H151, "Lower",LOWER(G151),"Proper",PROPER(G151),"Upper",UPPER(G151))</f>
+        <v>The Clock Struck Midnight.</v>
+      </c>
       <c r="G151" s="24" t="s">
         <v>83</v>
       </c>
@@ -3840,7 +4038,10 @@
       <c r="D152" s="23">
         <v>7</v>
       </c>
-      <c r="E152" s="5"/>
+      <c r="E152" s="5" t="str" cm="1">
+        <f t="array" ref="E152">_xlfn.SWITCH(H152, "Lower",LOWER(G152),"Proper",PROPER(G152),"Upper",UPPER(G152))</f>
+        <v>he planted a small tree.</v>
+      </c>
       <c r="G152" s="24" t="s">
         <v>84</v>
       </c>
@@ -3858,7 +4059,10 @@
       <c r="D153" s="23">
         <v>7</v>
       </c>
-      <c r="E153" s="5"/>
+      <c r="E153" s="5" t="str" cm="1">
+        <f t="array" ref="E153">_xlfn.SWITCH(H153, "Lower",LOWER(G153),"Proper",PROPER(G153),"Upper",UPPER(G153))</f>
+        <v>they cheered for the team.</v>
+      </c>
       <c r="G153" s="24" t="s">
         <v>85</v>
       </c>
@@ -3876,7 +4080,10 @@
       <c r="D154" s="23">
         <v>7</v>
       </c>
-      <c r="E154" s="5"/>
+      <c r="E154" s="5" t="str" cm="1">
+        <f t="array" ref="E154">_xlfn.SWITCH(H154, "Lower",LOWER(G154),"Proper",PROPER(G154),"Upper",UPPER(G154))</f>
+        <v>THE BIRD SANG A SWEET TUNE.</v>
+      </c>
       <c r="G154" s="24" t="s">
         <v>86</v>
       </c>
@@ -3894,7 +4101,10 @@
       <c r="D155" s="23">
         <v>7</v>
       </c>
-      <c r="E155" s="5"/>
+      <c r="E155" s="5" t="str" cm="1">
+        <f t="array" ref="E155">_xlfn.SWITCH(H155, "Lower",LOWER(G155),"Proper",PROPER(G155),"Upper",UPPER(G155))</f>
+        <v>SHE CLIMBED THE TALL MOUNTAIN.</v>
+      </c>
       <c r="G155" s="24" t="s">
         <v>87</v>
       </c>
@@ -3912,7 +4122,10 @@
       <c r="D156" s="23">
         <v>7</v>
       </c>
-      <c r="E156" s="5"/>
+      <c r="E156" s="5" t="str" cm="1">
+        <f t="array" ref="E156">_xlfn.SWITCH(H156, "Lower",LOWER(G156),"Proper",PROPER(G156),"Upper",UPPER(G156))</f>
+        <v>THE PHONE RANG SUDDENLY.</v>
+      </c>
       <c r="G156" s="24" t="s">
         <v>88</v>
       </c>
@@ -3930,7 +4143,10 @@
       <c r="D157" s="23">
         <v>7</v>
       </c>
-      <c r="E157" s="5"/>
+      <c r="E157" s="5" t="str" cm="1">
+        <f t="array" ref="E157">_xlfn.SWITCH(H157, "Lower",LOWER(G157),"Proper",PROPER(G157),"Upper",UPPER(G157))</f>
+        <v>he smiled at the stranger.</v>
+      </c>
       <c r="G157" s="24" t="s">
         <v>89</v>
       </c>
@@ -3959,7 +4175,7 @@
       </c>
       <c r="E159" s="48" t="str">
         <f>_xlfn.TEXTJOIN(";",FALSE,E138:E157)</f>
-        <v>;;;;;;;;;;;;;;;;;;;</v>
+        <v>she danced with joy.;he forgot his keys.;the cat slept peacefully.;We Laughed Out Loud.;the storm passed quickly.;SHE LOVES TO READ BOOKS.;They Walked To The Park.;He Painted The Fence Blue.;THE STARS SHONE BRIGHTLY.;we baked cookies together.;The Dog Wagged Its Tail.;She Wore A Red Dress.;THE CHILD BUILT A SANDCASTLE.;The Clock Struck Midnight.;he planted a small tree.;they cheered for the team.;THE BIRD SANG A SWEET TUNE.;SHE CLIMBED THE TALL MOUNTAIN.;THE PHONE RANG SUDDENLY.;he smiled at the stranger.</v>
       </c>
       <c r="G159" s="34"/>
       <c r="H159" s="34"/>

--- a/Text_Functions_Case.xlsx
+++ b/Text_Functions_Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1803945F-5A4B-4CBF-9EC4-F7A8D871E389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0024B4EE-280A-4BE4-9AE6-4214C6982BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D370DF4-3C71-4D6D-AE9D-E6E375992910}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="231">
   <si>
     <t>Case Author</t>
   </si>
@@ -571,9 +571,6 @@
   </si>
   <si>
     <t>EARLY.</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>SHE</t>
@@ -763,9 +760,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -1169,7 +1165,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1228,9 +1224,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1239,7 +1232,6 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1247,9 +1239,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1680,6 +1669,9 @@
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="4">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="9">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
@@ -1712,6 +1704,25 @@
 </we:webextension>
 </file>
 
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{F00DBABD-5220-4857-A0CC-09C0D6780234}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE0C0AB-03AE-4B9A-8F9C-4A4968D83DAE}">
   <sheetPr>
@@ -1719,8 +1730,8 @@
   </sheetPr>
   <dimension ref="A1:K290"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A275" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.4"/>
@@ -1740,17 +1751,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="33.6" customHeight="1">
-      <c r="B1" s="51" t="s">
-        <v>204</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="B1" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="2:11" ht="33.6" customHeight="1">
       <c r="B2" s="9"/>
@@ -1764,10 +1775,10 @@
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="2:11" ht="33.6" customHeight="1">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -1777,10 +1788,10 @@
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="2:11" ht="33.6" customHeight="1">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -1800,120 +1811,120 @@
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="2:11" ht="21.75" customHeight="1">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="61"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="2:11" ht="14.25" customHeight="1">
-      <c r="B8" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
+      <c r="B8" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="51"/>
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="2:11" ht="21.9" customHeight="1">
-      <c r="B9" s="55"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
     </row>
     <row r="10" spans="2:11" ht="21.9" customHeight="1">
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
     </row>
     <row r="11" spans="2:11" ht="21.9" customHeight="1">
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="57"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
     </row>
     <row r="12" spans="2:11" ht="21.9" customHeight="1">
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
     </row>
     <row r="13" spans="2:11" ht="21.9" customHeight="1">
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
     </row>
     <row r="14" spans="2:11" ht="21.9" customHeight="1">
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="57"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="2:11" ht="21.75" customHeight="1">
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
     </row>
     <row r="16" spans="2:11" ht="21.75" customHeight="1">
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="60"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="57"/>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" ht="15" customHeight="1">
@@ -1924,18 +1935,18 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="2:11" ht="21">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
     </row>
     <row r="19" spans="2:11" ht="15" customHeight="1" thickBot="1">
       <c r="B19" s="16"/>
@@ -1974,14 +1985,14 @@
     <row r="24" spans="2:11" ht="15" customHeight="1">
       <c r="B24" s="18"/>
       <c r="C24" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="2:11" ht="15" customHeight="1">
       <c r="B25" s="18"/>
       <c r="C25" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G25" s="20"/>
     </row>
@@ -2031,27 +2042,34 @@
         <v>0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="G30" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="24" t="s">
+      <c r="H30" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="26"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="25"/>
     </row>
     <row r="31" spans="2:11" ht="15" customHeight="1">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="22"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
+      <c r="E31" s="5" t="str">
+        <f>IF(H31="Left",LEFT(G31,1),RIGHT(G31,1))</f>
+        <v>K</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
     </row>
     <row r="32" spans="2:11" ht="23.25" customHeight="1">
       <c r="B32" s="15">
@@ -2060,22 +2078,22 @@
       <c r="C32" s="15">
         <v>1</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="22">
         <v>4</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>IF(H32="Left",LEFT(G32,1),RIGHT(G32,1))</f>
         <v>P</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="26"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="25"/>
     </row>
     <row r="33" spans="2:11" ht="23.25" customHeight="1">
       <c r="B33" s="15">
@@ -2084,22 +2102,22 @@
       <c r="C33" s="15">
         <v>1</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="22">
         <v>4</v>
       </c>
       <c r="E33" s="5" t="str">
         <f t="shared" ref="E33:E41" si="0">IF(H33="Left",LEFT(G33,1),RIGHT(G33,1))</f>
         <v>C</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H33" s="24" t="s">
+      <c r="H33" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="26"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="25"/>
     </row>
     <row r="34" spans="2:11" ht="23.25" customHeight="1">
       <c r="B34" s="15">
@@ -2108,22 +2126,22 @@
       <c r="C34" s="15">
         <v>1</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="22">
         <v>4</v>
       </c>
       <c r="E34" s="5" t="str">
         <f t="shared" si="0"/>
         <v>y</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="24" t="s">
+      <c r="H34" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="26"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="25"/>
     </row>
     <row r="35" spans="2:11" ht="23.25" customHeight="1">
       <c r="B35" s="15">
@@ -2132,22 +2150,22 @@
       <c r="C35" s="15">
         <v>1</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="22">
         <v>4</v>
       </c>
       <c r="E35" s="5" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="24" t="s">
+      <c r="H35" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="26"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="25"/>
     </row>
     <row r="36" spans="2:11" ht="23.25" customHeight="1">
       <c r="B36" s="15">
@@ -2156,22 +2174,22 @@
       <c r="C36" s="15">
         <v>1</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="22">
         <v>4</v>
       </c>
       <c r="E36" s="5" t="str">
         <f t="shared" si="0"/>
         <v>d</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="26"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="25"/>
     </row>
     <row r="37" spans="2:11" ht="23.25" customHeight="1">
       <c r="B37" s="15">
@@ -2180,22 +2198,22 @@
       <c r="C37" s="15">
         <v>1</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="22">
         <v>4</v>
       </c>
       <c r="E37" s="5" t="str">
         <f t="shared" si="0"/>
         <v>t</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="24" t="s">
+      <c r="H37" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="26"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="25"/>
     </row>
     <row r="38" spans="2:11" ht="23.25" customHeight="1">
       <c r="B38" s="15">
@@ -2204,22 +2222,22 @@
       <c r="C38" s="15">
         <v>1</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="22">
         <v>4</v>
       </c>
       <c r="E38" s="5" t="str">
         <f t="shared" si="0"/>
         <v>M</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H38" s="24" t="s">
+      <c r="H38" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="26"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="25"/>
     </row>
     <row r="39" spans="2:11" ht="23.25" customHeight="1">
       <c r="B39" s="15">
@@ -2228,22 +2246,22 @@
       <c r="C39" s="15">
         <v>1</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="22">
         <v>4</v>
       </c>
       <c r="E39" s="5" t="str">
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="24" t="s">
+      <c r="H39" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="26"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="25"/>
     </row>
     <row r="40" spans="2:11" ht="23.25" customHeight="1">
       <c r="B40" s="15">
@@ -2252,22 +2270,22 @@
       <c r="C40" s="15">
         <v>1</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="22">
         <v>4</v>
       </c>
       <c r="E40" s="5" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="24" t="s">
+      <c r="H40" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="26"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="25"/>
     </row>
     <row r="41" spans="2:11" ht="23.25" customHeight="1">
       <c r="B41" s="15">
@@ -2276,22 +2294,22 @@
       <c r="C41" s="15">
         <v>1</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="22">
         <v>4</v>
       </c>
       <c r="E41" s="5" t="str">
         <f t="shared" si="0"/>
         <v>y</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H41" s="24" t="s">
+      <c r="H41" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="26"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="25"/>
     </row>
     <row r="42" spans="2:11" ht="15" customHeight="1">
       <c r="B42" s="16"/>
@@ -2306,15 +2324,15 @@
     </row>
     <row r="43" spans="2:11" ht="31.2">
       <c r="B43" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C43" s="15">
         <v>1</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="22">
         <v>0</v>
       </c>
-      <c r="E43" s="48" t="str">
+      <c r="E43" s="45" t="str">
         <f>_xlfn.TEXTJOIN(";",FALSE,E32:E41)</f>
         <v>P;C;y;F;d;t;M;D;A;y</v>
       </c>
@@ -2351,13 +2369,13 @@
       </c>
     </row>
     <row r="48" spans="2:11" ht="15" customHeight="1">
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15" customHeight="1">
-      <c r="B49" s="28" t="s">
-        <v>224</v>
+      <c r="B49" s="26" t="s">
+        <v>223</v>
       </c>
       <c r="G49" s="20"/>
     </row>
@@ -2367,7 +2385,7 @@
     </row>
     <row r="51" spans="2:9" ht="15" customHeight="1">
       <c r="B51" s="18"/>
-      <c r="C51" s="29"/>
+      <c r="C51" s="27"/>
       <c r="G51" s="20"/>
     </row>
     <row r="52" spans="2:9" ht="15" customHeight="1" thickBot="1">
@@ -2414,23 +2432,35 @@
         <v>0</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="G55" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G55" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H55" s="42">
+      <c r="H55" s="39">
         <v>3</v>
       </c>
-      <c r="I55" s="42">
+      <c r="I55" s="39">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="15" customHeight="1">
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="22"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="5" t="str">
+        <f>MID(G56,H56,I56)</f>
+        <v>am</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" s="39">
+        <v>3</v>
+      </c>
+      <c r="I56" s="39">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" spans="2:9" ht="23.25" customHeight="1">
       <c r="B57" s="15">
@@ -2439,20 +2469,20 @@
       <c r="C57" s="15">
         <v>2</v>
       </c>
-      <c r="D57" s="23">
+      <c r="D57" s="22">
         <v>5</v>
       </c>
       <c r="E57" s="5" t="str">
         <f>MID(G57,H57,I57)</f>
         <v>ail</v>
       </c>
-      <c r="G57" s="24" t="s">
+      <c r="G57" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H57" s="42">
+      <c r="H57" s="39">
         <v>2</v>
       </c>
-      <c r="I57" s="42">
+      <c r="I57" s="39">
         <v>3</v>
       </c>
     </row>
@@ -2463,20 +2493,20 @@
       <c r="C58" s="15">
         <v>2</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D58" s="22">
         <v>5</v>
       </c>
       <c r="E58" s="5" t="str">
         <f t="shared" ref="E58:E76" si="1">MID(G58,H58,I58)</f>
         <v>Adven</v>
       </c>
-      <c r="G58" s="24" t="s">
+      <c r="G58" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H58" s="42">
+      <c r="H58" s="39">
         <v>1</v>
       </c>
-      <c r="I58" s="42">
+      <c r="I58" s="39">
         <v>5</v>
       </c>
     </row>
@@ -2487,20 +2517,20 @@
       <c r="C59" s="15">
         <v>2</v>
       </c>
-      <c r="D59" s="23">
+      <c r="D59" s="22">
         <v>5</v>
       </c>
       <c r="E59" s="5" t="str">
         <f t="shared" si="1"/>
         <v>room</v>
       </c>
-      <c r="G59" s="24" t="s">
+      <c r="G59" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H59" s="42">
+      <c r="H59" s="39">
         <v>5</v>
       </c>
-      <c r="I59" s="42">
+      <c r="I59" s="39">
         <v>4</v>
       </c>
     </row>
@@ -2511,20 +2541,20 @@
       <c r="C60" s="15">
         <v>2</v>
       </c>
-      <c r="D60" s="23">
+      <c r="D60" s="22">
         <v>5</v>
       </c>
       <c r="E60" s="5" t="str">
         <f t="shared" si="1"/>
         <v>mpagne</v>
       </c>
-      <c r="G60" s="24" t="s">
+      <c r="G60" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H60" s="42">
+      <c r="H60" s="39">
         <v>4</v>
       </c>
-      <c r="I60" s="42">
+      <c r="I60" s="39">
         <v>6</v>
       </c>
     </row>
@@ -2535,20 +2565,20 @@
       <c r="C61" s="15">
         <v>2</v>
       </c>
-      <c r="D61" s="23">
+      <c r="D61" s="22">
         <v>5</v>
       </c>
       <c r="E61" s="5" t="str">
         <f t="shared" si="1"/>
         <v>utter</v>
       </c>
-      <c r="G61" s="24" t="s">
+      <c r="G61" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H61" s="42">
+      <c r="H61" s="39">
         <v>2</v>
       </c>
-      <c r="I61" s="42">
+      <c r="I61" s="39">
         <v>5</v>
       </c>
     </row>
@@ -2559,20 +2589,20 @@
       <c r="C62" s="15">
         <v>2</v>
       </c>
-      <c r="D62" s="23">
+      <c r="D62" s="22">
         <v>5</v>
       </c>
       <c r="E62" s="5" t="str">
         <f t="shared" si="1"/>
         <v>flo</v>
       </c>
-      <c r="G62" s="24" t="s">
+      <c r="G62" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="H62" s="42">
+      <c r="H62" s="39">
         <v>4</v>
       </c>
-      <c r="I62" s="42">
+      <c r="I62" s="39">
         <v>3</v>
       </c>
     </row>
@@ -2583,20 +2613,20 @@
       <c r="C63" s="15">
         <v>2</v>
       </c>
-      <c r="D63" s="23">
+      <c r="D63" s="22">
         <v>5</v>
       </c>
       <c r="E63" s="5" t="str">
         <f t="shared" si="1"/>
         <v>an</v>
       </c>
-      <c r="G63" s="24" t="s">
+      <c r="G63" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H63" s="42">
+      <c r="H63" s="39">
         <v>3</v>
       </c>
-      <c r="I63" s="42">
+      <c r="I63" s="39">
         <v>2</v>
       </c>
     </row>
@@ -2607,20 +2637,20 @@
       <c r="C64" s="15">
         <v>2</v>
       </c>
-      <c r="D64" s="23">
+      <c r="D64" s="22">
         <v>5</v>
       </c>
       <c r="E64" s="5" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="G64" s="24" t="s">
+      <c r="G64" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="H64" s="42">
+      <c r="H64" s="39">
         <v>1</v>
       </c>
-      <c r="I64" s="42">
+      <c r="I64" s="39">
         <v>1</v>
       </c>
     </row>
@@ -2631,20 +2661,20 @@
       <c r="C65" s="15">
         <v>2</v>
       </c>
-      <c r="D65" s="23">
+      <c r="D65" s="22">
         <v>5</v>
       </c>
       <c r="E65" s="5" t="str">
         <f t="shared" si="1"/>
         <v>on</v>
       </c>
-      <c r="G65" s="24" t="s">
+      <c r="G65" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="H65" s="42">
+      <c r="H65" s="39">
         <v>2</v>
       </c>
-      <c r="I65" s="42">
+      <c r="I65" s="39">
         <v>2</v>
       </c>
     </row>
@@ -2655,20 +2685,20 @@
       <c r="C66" s="15">
         <v>2</v>
       </c>
-      <c r="D66" s="23">
+      <c r="D66" s="22">
         <v>5</v>
       </c>
       <c r="E66" s="5" t="str">
         <f t="shared" si="1"/>
         <v>ipmen</v>
       </c>
-      <c r="G66" s="24" t="s">
+      <c r="G66" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H66" s="42">
+      <c r="H66" s="39">
         <v>4</v>
       </c>
-      <c r="I66" s="42">
+      <c r="I66" s="39">
         <v>5</v>
       </c>
     </row>
@@ -2679,23 +2709,23 @@
       <c r="C67" s="15">
         <v>2</v>
       </c>
-      <c r="D67" s="23">
+      <c r="D67" s="22">
         <v>5</v>
       </c>
       <c r="E67" s="5" t="str">
         <f t="shared" si="1"/>
         <v>owle</v>
       </c>
-      <c r="G67" s="24" t="s">
+      <c r="G67" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H67" s="42">
+      <c r="H67" s="39">
         <v>3</v>
       </c>
-      <c r="I67" s="42">
+      <c r="I67" s="39">
         <v>4</v>
       </c>
-      <c r="J67" s="26"/>
+      <c r="J67" s="25"/>
     </row>
     <row r="68" spans="2:10" ht="23.25" customHeight="1">
       <c r="B68" s="15">
@@ -2704,23 +2734,23 @@
       <c r="C68" s="15">
         <v>2</v>
       </c>
-      <c r="D68" s="23">
+      <c r="D68" s="22">
         <v>5</v>
       </c>
       <c r="E68" s="5" t="str">
         <f t="shared" si="1"/>
         <v>et</v>
       </c>
-      <c r="G68" s="24" t="s">
+      <c r="G68" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H68" s="42">
+      <c r="H68" s="39">
         <v>2</v>
       </c>
-      <c r="I68" s="42">
+      <c r="I68" s="39">
         <v>2</v>
       </c>
-      <c r="J68" s="26"/>
+      <c r="J68" s="25"/>
     </row>
     <row r="69" spans="2:10" ht="23.25" customHeight="1">
       <c r="B69" s="15">
@@ -2729,23 +2759,23 @@
       <c r="C69" s="15">
         <v>2</v>
       </c>
-      <c r="D69" s="23">
+      <c r="D69" s="22">
         <v>5</v>
       </c>
       <c r="E69" s="5" t="str">
         <f t="shared" si="1"/>
         <v>ncho</v>
       </c>
-      <c r="G69" s="24" t="s">
+      <c r="G69" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H69" s="42">
+      <c r="H69" s="39">
         <v>2</v>
       </c>
-      <c r="I69" s="42">
+      <c r="I69" s="39">
         <v>4</v>
       </c>
-      <c r="J69" s="26"/>
+      <c r="J69" s="25"/>
     </row>
     <row r="70" spans="2:10" ht="23.25" customHeight="1">
       <c r="B70" s="15">
@@ -2754,23 +2784,23 @@
       <c r="C70" s="15">
         <v>2</v>
       </c>
-      <c r="D70" s="23">
+      <c r="D70" s="22">
         <v>5</v>
       </c>
       <c r="E70" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Ove</v>
       </c>
-      <c r="G70" s="24" t="s">
+      <c r="G70" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H70" s="42">
+      <c r="H70" s="39">
         <v>1</v>
       </c>
-      <c r="I70" s="42">
+      <c r="I70" s="39">
         <v>3</v>
       </c>
-      <c r="J70" s="26"/>
+      <c r="J70" s="25"/>
     </row>
     <row r="71" spans="2:10" ht="23.25" customHeight="1">
       <c r="B71" s="15">
@@ -2779,23 +2809,23 @@
       <c r="C71" s="15">
         <v>2</v>
       </c>
-      <c r="D71" s="23">
+      <c r="D71" s="22">
         <v>5</v>
       </c>
       <c r="E71" s="5" t="str">
         <f t="shared" si="1"/>
         <v>hou</v>
       </c>
-      <c r="G71" s="24" t="s">
+      <c r="G71" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H71" s="42">
+      <c r="H71" s="39">
         <v>6</v>
       </c>
-      <c r="I71" s="42">
+      <c r="I71" s="39">
         <v>3</v>
       </c>
-      <c r="J71" s="26"/>
+      <c r="J71" s="25"/>
     </row>
     <row r="72" spans="2:10" ht="23.25" customHeight="1">
       <c r="B72" s="15">
@@ -2804,23 +2834,23 @@
       <c r="C72" s="15">
         <v>2</v>
       </c>
-      <c r="D72" s="23">
+      <c r="D72" s="22">
         <v>5</v>
       </c>
       <c r="E72" s="5" t="str">
         <f t="shared" si="1"/>
         <v>aterfa</v>
       </c>
-      <c r="G72" s="24" t="s">
+      <c r="G72" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H72" s="42">
+      <c r="H72" s="39">
         <v>2</v>
       </c>
-      <c r="I72" s="42">
+      <c r="I72" s="39">
         <v>6</v>
       </c>
-      <c r="J72" s="26"/>
+      <c r="J72" s="25"/>
     </row>
     <row r="73" spans="2:10" ht="23.25" customHeight="1">
       <c r="B73" s="15">
@@ -2829,23 +2859,23 @@
       <c r="C73" s="15">
         <v>2</v>
       </c>
-      <c r="D73" s="23">
+      <c r="D73" s="22">
         <v>5</v>
       </c>
       <c r="E73" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Revolut</v>
       </c>
-      <c r="G73" s="24" t="s">
+      <c r="G73" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H73" s="42">
+      <c r="H73" s="39">
         <v>1</v>
       </c>
-      <c r="I73" s="42">
+      <c r="I73" s="39">
         <v>7</v>
       </c>
-      <c r="J73" s="26"/>
+      <c r="J73" s="25"/>
     </row>
     <row r="74" spans="2:10" ht="23.25" customHeight="1">
       <c r="B74" s="15">
@@ -2854,23 +2884,23 @@
       <c r="C74" s="15">
         <v>2</v>
       </c>
-      <c r="D74" s="23">
+      <c r="D74" s="22">
         <v>5</v>
       </c>
       <c r="E74" s="5" t="str">
         <f t="shared" si="1"/>
         <v>angerous</v>
       </c>
-      <c r="G74" s="24" t="s">
+      <c r="G74" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="H74" s="42">
+      <c r="H74" s="39">
         <v>2</v>
       </c>
-      <c r="I74" s="42">
+      <c r="I74" s="39">
         <v>8</v>
       </c>
-      <c r="J74" s="26"/>
+      <c r="J74" s="25"/>
     </row>
     <row r="75" spans="2:10" ht="23.25" customHeight="1">
       <c r="B75" s="15">
@@ -2879,23 +2909,23 @@
       <c r="C75" s="15">
         <v>2</v>
       </c>
-      <c r="D75" s="23">
+      <c r="D75" s="22">
         <v>5</v>
       </c>
       <c r="E75" s="5" t="str">
         <f t="shared" si="1"/>
         <v>sthet</v>
       </c>
-      <c r="G75" s="24" t="s">
+      <c r="G75" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="H75" s="42">
+      <c r="H75" s="39">
         <v>3</v>
       </c>
-      <c r="I75" s="42">
+      <c r="I75" s="39">
         <v>5</v>
       </c>
-      <c r="J75" s="26"/>
+      <c r="J75" s="25"/>
     </row>
     <row r="76" spans="2:10" ht="23.25" customHeight="1">
       <c r="B76" s="15">
@@ -2904,53 +2934,53 @@
       <c r="C76" s="15">
         <v>2</v>
       </c>
-      <c r="D76" s="23">
+      <c r="D76" s="22">
         <v>5</v>
       </c>
       <c r="E76" s="5" t="str">
         <f t="shared" si="1"/>
         <v>hari</v>
       </c>
-      <c r="G76" s="24" t="s">
+      <c r="G76" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="H76" s="42">
+      <c r="H76" s="39">
         <v>2</v>
       </c>
-      <c r="I76" s="42">
+      <c r="I76" s="39">
         <v>4</v>
       </c>
-      <c r="J76" s="26"/>
+      <c r="J76" s="25"/>
     </row>
     <row r="77" spans="2:10" ht="23.25" customHeight="1">
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
       <c r="E77" s="17"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="47"/>
-      <c r="I77" s="47"/>
-      <c r="J77" s="26"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="25"/>
     </row>
     <row r="78" spans="2:10" ht="31.2">
       <c r="B78" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C78" s="15">
         <f>C76</f>
         <v>2</v>
       </c>
-      <c r="D78" s="23">
+      <c r="D78" s="22">
         <v>0</v>
       </c>
-      <c r="E78" s="48" t="str">
+      <c r="E78" s="45" t="str">
         <f>_xlfn.TEXTJOIN(";",FALSE,E57:E76)</f>
         <v>ail;Adven;room;mpagne;utter;flo;an;F;on;ipmen;owle;et;ncho;Ove;hou;aterfa;Revolut;angerous;sthet;hari</v>
       </c>
-      <c r="G78" s="46"/>
-      <c r="H78" s="47"/>
-      <c r="I78" s="47"/>
-      <c r="J78" s="26"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="25"/>
     </row>
     <row r="79" spans="2:10" ht="15" customHeight="1" thickBot="1">
       <c r="B79" s="16"/>
@@ -2980,72 +3010,72 @@
     </row>
     <row r="82" spans="2:8" ht="15" customHeight="1">
       <c r="B82" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="12"/>
     </row>
     <row r="83" spans="2:8" ht="15" customHeight="1">
-      <c r="B83" s="28" t="s">
-        <v>206</v>
+      <c r="B83" s="26" t="s">
+        <v>205</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="12"/>
     </row>
     <row r="84" spans="2:8" ht="15" customHeight="1">
-      <c r="B84" s="28" t="s">
-        <v>207</v>
+      <c r="B84" s="26" t="s">
+        <v>206</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="12"/>
     </row>
     <row r="85" spans="2:8" ht="15" customHeight="1">
-      <c r="B85" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="C85" s="28"/>
+      <c r="B85" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C85" s="26"/>
       <c r="D85" s="6"/>
       <c r="E85" s="12"/>
     </row>
     <row r="86" spans="2:8" ht="15" customHeight="1">
-      <c r="B86" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="C86" s="28"/>
+      <c r="B86" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C86" s="26"/>
       <c r="D86" s="6"/>
       <c r="E86" s="12"/>
     </row>
     <row r="87" spans="2:8" ht="15" customHeight="1">
       <c r="B87" s="18"/>
-      <c r="C87" s="28"/>
+      <c r="C87" s="26"/>
       <c r="D87" s="6"/>
       <c r="E87" s="12"/>
     </row>
     <row r="88" spans="2:8" ht="15" customHeight="1">
       <c r="B88" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="C88" s="28"/>
+        <v>220</v>
+      </c>
+      <c r="C88" s="26"/>
       <c r="D88" s="6"/>
       <c r="E88" s="12"/>
     </row>
     <row r="89" spans="2:8" ht="15" customHeight="1">
-      <c r="B89" s="43" t="s">
+      <c r="B89" s="40" t="s">
         <v>90</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="12"/>
       <c r="G89" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90" spans="2:8" ht="15" customHeight="1">
       <c r="B90" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -3053,7 +3083,7 @@
     </row>
     <row r="91" spans="2:8" ht="15" customHeight="1">
       <c r="B91" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -3061,7 +3091,7 @@
     </row>
     <row r="92" spans="2:8" ht="15" customHeight="1">
       <c r="B92" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -3107,24 +3137,33 @@
       <c r="C96" s="15">
         <v>3</v>
       </c>
-      <c r="D96" s="23">
+      <c r="D96" s="22">
         <v>0</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="G96" s="24" t="s">
+      <c r="G96" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="H96" s="42">
+      <c r="H96" s="39">
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="2:8">
+    <row r="97" spans="2:8" ht="23.4">
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="31"/>
+      <c r="E97" s="5" t="str" cm="1">
+        <f t="array" ref="E97">INDEX(_xlfn.TEXTSPLIT(G97," "),H97)</f>
+        <v>early.</v>
+      </c>
+      <c r="G97" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H97" s="39">
+        <v>4</v>
+      </c>
     </row>
     <row r="98" spans="2:8" ht="23.25" customHeight="1">
       <c r="B98" s="15">
@@ -3133,17 +3172,17 @@
       <c r="C98" s="15">
         <v>3</v>
       </c>
-      <c r="D98" s="23">
+      <c r="D98" s="22">
         <v>6</v>
       </c>
       <c r="E98" s="5" t="str" cm="1">
         <f t="array" ref="E98">INDEX(_xlfn.TEXTSPLIT(G98," "),H98)</f>
         <v>She</v>
       </c>
-      <c r="G98" s="24" t="s">
+      <c r="G98" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="H98" s="42">
+      <c r="H98" s="39">
         <v>1</v>
       </c>
     </row>
@@ -3154,17 +3193,17 @@
       <c r="C99" s="15">
         <v>3</v>
       </c>
-      <c r="D99" s="23">
+      <c r="D99" s="22">
         <v>6</v>
       </c>
       <c r="E99" s="5" t="str" cm="1">
         <f t="array" ref="E99">INDEX(_xlfn.TEXTSPLIT(G99," "),H99)</f>
         <v>forgot</v>
       </c>
-      <c r="G99" s="24" t="s">
+      <c r="G99" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="H99" s="42">
+      <c r="H99" s="39">
         <v>2</v>
       </c>
     </row>
@@ -3175,17 +3214,17 @@
       <c r="C100" s="15">
         <v>3</v>
       </c>
-      <c r="D100" s="23">
+      <c r="D100" s="22">
         <v>6</v>
       </c>
       <c r="E100" s="5" t="str" cm="1">
         <f t="array" ref="E100">INDEX(_xlfn.TEXTSPLIT(G100," "),H100)</f>
         <v>slept</v>
       </c>
-      <c r="G100" s="24" t="s">
+      <c r="G100" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="H100" s="42">
+      <c r="H100" s="39">
         <v>3</v>
       </c>
     </row>
@@ -3196,17 +3235,17 @@
       <c r="C101" s="15">
         <v>3</v>
       </c>
-      <c r="D101" s="23">
+      <c r="D101" s="22">
         <v>6</v>
       </c>
       <c r="E101" s="5" t="str" cm="1">
         <f t="array" ref="E101">INDEX(_xlfn.TEXTSPLIT(G101," "),H101)</f>
         <v>loud.</v>
       </c>
-      <c r="G101" s="24" t="s">
+      <c r="G101" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H101" s="42">
+      <c r="H101" s="39">
         <v>4</v>
       </c>
     </row>
@@ -3217,17 +3256,17 @@
       <c r="C102" s="15">
         <v>3</v>
       </c>
-      <c r="D102" s="23">
+      <c r="D102" s="22">
         <v>6</v>
       </c>
       <c r="E102" s="5" t="str" cm="1">
         <f t="array" ref="E102">INDEX(_xlfn.TEXTSPLIT(G102," "),H102)</f>
         <v>storm</v>
       </c>
-      <c r="G102" s="24" t="s">
+      <c r="G102" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="H102" s="42">
+      <c r="H102" s="39">
         <v>2</v>
       </c>
     </row>
@@ -3238,17 +3277,17 @@
       <c r="C103" s="15">
         <v>3</v>
       </c>
-      <c r="D103" s="23">
+      <c r="D103" s="22">
         <v>6</v>
       </c>
       <c r="E103" s="5" t="str" cm="1">
         <f t="array" ref="E103">INDEX(_xlfn.TEXTSPLIT(G103," "),H103)</f>
         <v>She</v>
       </c>
-      <c r="G103" s="24" t="s">
+      <c r="G103" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="H103" s="42">
+      <c r="H103" s="39">
         <v>1</v>
       </c>
     </row>
@@ -3259,17 +3298,17 @@
       <c r="C104" s="15">
         <v>3</v>
       </c>
-      <c r="D104" s="23">
+      <c r="D104" s="22">
         <v>6</v>
       </c>
       <c r="E104" s="5" t="str" cm="1">
         <f t="array" ref="E104">INDEX(_xlfn.TEXTSPLIT(G104," "),H104)</f>
         <v>to</v>
       </c>
-      <c r="G104" s="24" t="s">
+      <c r="G104" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="H104" s="42">
+      <c r="H104" s="39">
         <v>3</v>
       </c>
     </row>
@@ -3280,17 +3319,17 @@
       <c r="C105" s="15">
         <v>3</v>
       </c>
-      <c r="D105" s="23">
+      <c r="D105" s="22">
         <v>6</v>
       </c>
       <c r="E105" s="5" t="str" cm="1">
         <f t="array" ref="E105">INDEX(_xlfn.TEXTSPLIT(G105," "),H105)</f>
         <v>blue.</v>
       </c>
-      <c r="G105" s="24" t="s">
+      <c r="G105" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="H105" s="42">
+      <c r="H105" s="39">
         <v>5</v>
       </c>
     </row>
@@ -3301,17 +3340,17 @@
       <c r="C106" s="15">
         <v>3</v>
       </c>
-      <c r="D106" s="23">
+      <c r="D106" s="22">
         <v>6</v>
       </c>
       <c r="E106" s="5" t="str" cm="1">
         <f t="array" ref="E106">INDEX(_xlfn.TEXTSPLIT(G106," "),H106)</f>
         <v>shone</v>
       </c>
-      <c r="G106" s="24" t="s">
+      <c r="G106" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="H106" s="42">
+      <c r="H106" s="39">
         <v>3</v>
       </c>
     </row>
@@ -3322,17 +3361,17 @@
       <c r="C107" s="15">
         <v>3</v>
       </c>
-      <c r="D107" s="23">
+      <c r="D107" s="22">
         <v>6</v>
       </c>
       <c r="E107" s="5" t="str" cm="1">
         <f t="array" ref="E107">INDEX(_xlfn.TEXTSPLIT(G107," "),H107)</f>
         <v>baked</v>
       </c>
-      <c r="G107" s="24" t="s">
+      <c r="G107" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="H107" s="42">
+      <c r="H107" s="39">
         <v>2</v>
       </c>
     </row>
@@ -3343,17 +3382,17 @@
       <c r="C108" s="15">
         <v>3</v>
       </c>
-      <c r="D108" s="23">
+      <c r="D108" s="22">
         <v>6</v>
       </c>
       <c r="E108" s="5" t="str" cm="1">
         <f t="array" ref="E108">INDEX(_xlfn.TEXTSPLIT(G108," "),H108)</f>
         <v>The</v>
       </c>
-      <c r="G108" s="24" t="s">
+      <c r="G108" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="H108" s="42">
+      <c r="H108" s="39">
         <v>1</v>
       </c>
     </row>
@@ -3364,17 +3403,17 @@
       <c r="C109" s="15">
         <v>3</v>
       </c>
-      <c r="D109" s="23">
+      <c r="D109" s="22">
         <v>6</v>
       </c>
       <c r="E109" s="5" t="str" cm="1">
         <f t="array" ref="E109">INDEX(_xlfn.TEXTSPLIT(G109," "),H109)</f>
         <v>wore</v>
       </c>
-      <c r="G109" s="24" t="s">
+      <c r="G109" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H109" s="42">
+      <c r="H109" s="39">
         <v>2</v>
       </c>
     </row>
@@ -3385,17 +3424,17 @@
       <c r="C110" s="15">
         <v>3</v>
       </c>
-      <c r="D110" s="23">
+      <c r="D110" s="22">
         <v>6</v>
       </c>
       <c r="E110" s="5" t="str" cm="1">
         <f t="array" ref="E110">INDEX(_xlfn.TEXTSPLIT(G110," "),H110)</f>
         <v>built</v>
       </c>
-      <c r="G110" s="24" t="s">
+      <c r="G110" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="H110" s="42">
+      <c r="H110" s="39">
         <v>3</v>
       </c>
     </row>
@@ -3406,17 +3445,17 @@
       <c r="C111" s="15">
         <v>3</v>
       </c>
-      <c r="D111" s="23">
+      <c r="D111" s="22">
         <v>6</v>
       </c>
       <c r="E111" s="5" t="str" cm="1">
         <f t="array" ref="E111">INDEX(_xlfn.TEXTSPLIT(G111," "),H111)</f>
         <v>clock</v>
       </c>
-      <c r="G111" s="24" t="s">
+      <c r="G111" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="H111" s="42">
+      <c r="H111" s="39">
         <v>2</v>
       </c>
     </row>
@@ -3427,17 +3466,17 @@
       <c r="C112" s="15">
         <v>3</v>
       </c>
-      <c r="D112" s="23">
+      <c r="D112" s="22">
         <v>6</v>
       </c>
       <c r="E112" s="5" t="str" cm="1">
         <f t="array" ref="E112">INDEX(_xlfn.TEXTSPLIT(G112," "),H112)</f>
         <v>small</v>
       </c>
-      <c r="G112" s="24" t="s">
+      <c r="G112" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="H112" s="42">
+      <c r="H112" s="39">
         <v>4</v>
       </c>
     </row>
@@ -3448,17 +3487,17 @@
       <c r="C113" s="15">
         <v>3</v>
       </c>
-      <c r="D113" s="23">
+      <c r="D113" s="22">
         <v>6</v>
       </c>
       <c r="E113" s="5" t="str" cm="1">
         <f t="array" ref="E113">INDEX(_xlfn.TEXTSPLIT(G113," "),H113)</f>
         <v>for</v>
       </c>
-      <c r="G113" s="24" t="s">
+      <c r="G113" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="H113" s="42">
+      <c r="H113" s="39">
         <v>3</v>
       </c>
     </row>
@@ -3469,17 +3508,17 @@
       <c r="C114" s="15">
         <v>3</v>
       </c>
-      <c r="D114" s="23">
+      <c r="D114" s="22">
         <v>6</v>
       </c>
       <c r="E114" s="5" t="str" cm="1">
         <f t="array" ref="E114">INDEX(_xlfn.TEXTSPLIT(G114," "),H114)</f>
         <v>sweet</v>
       </c>
-      <c r="G114" s="24" t="s">
+      <c r="G114" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="H114" s="42">
+      <c r="H114" s="39">
         <v>5</v>
       </c>
     </row>
@@ -3490,17 +3529,17 @@
       <c r="C115" s="15">
         <v>3</v>
       </c>
-      <c r="D115" s="23">
+      <c r="D115" s="22">
         <v>6</v>
       </c>
       <c r="E115" s="5" t="str" cm="1">
         <f t="array" ref="E115">INDEX(_xlfn.TEXTSPLIT(G115," "),H115)</f>
         <v>the</v>
       </c>
-      <c r="G115" s="24" t="s">
+      <c r="G115" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="H115" s="42">
+      <c r="H115" s="39">
         <v>3</v>
       </c>
     </row>
@@ -3511,17 +3550,17 @@
       <c r="C116" s="15">
         <v>3</v>
       </c>
-      <c r="D116" s="23">
+      <c r="D116" s="22">
         <v>6</v>
       </c>
       <c r="E116" s="5" t="str" cm="1">
         <f t="array" ref="E116">INDEX(_xlfn.TEXTSPLIT(G116," "),H116)</f>
         <v>phone</v>
       </c>
-      <c r="G116" s="24" t="s">
+      <c r="G116" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="H116" s="42">
+      <c r="H116" s="39">
         <v>2</v>
       </c>
     </row>
@@ -3532,17 +3571,17 @@
       <c r="C117" s="15">
         <v>3</v>
       </c>
-      <c r="D117" s="23">
+      <c r="D117" s="22">
         <v>6</v>
       </c>
       <c r="E117" s="5" t="str" cm="1">
         <f t="array" ref="E117">INDEX(_xlfn.TEXTSPLIT(G117," "),H117)</f>
         <v>smiled</v>
       </c>
-      <c r="G117" s="24" t="s">
+      <c r="G117" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="H117" s="42">
+      <c r="H117" s="39">
         <v>2</v>
       </c>
     </row>
@@ -3550,38 +3589,38 @@
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
-      <c r="E118" s="32"/>
-      <c r="G118" s="34"/>
-      <c r="H118" s="34"/>
-      <c r="J118" s="34"/>
+      <c r="E118" s="29"/>
+      <c r="G118" s="31"/>
+      <c r="H118" s="31"/>
+      <c r="J118" s="31"/>
     </row>
     <row r="119" spans="2:10" ht="31.2">
       <c r="B119" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C119" s="15">
         <f>C117</f>
         <v>3</v>
       </c>
-      <c r="D119" s="23">
+      <c r="D119" s="22">
         <v>0</v>
       </c>
-      <c r="E119" s="48" t="str">
+      <c r="E119" s="45" t="str">
         <f>_xlfn.TEXTJOIN(";",FALSE,E98:E117)</f>
         <v>She;forgot;slept;loud.;storm;She;to;blue.;shone;baked;The;wore;built;clock;small;for;sweet;the;phone;smiled</v>
       </c>
-      <c r="G119" s="34"/>
-      <c r="H119" s="34"/>
-      <c r="J119" s="34"/>
+      <c r="G119" s="31"/>
+      <c r="H119" s="31"/>
+      <c r="J119" s="31"/>
     </row>
     <row r="120" spans="2:10" ht="15" thickBot="1">
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
-      <c r="E120" s="32"/>
-      <c r="G120" s="34"/>
-      <c r="H120" s="34"/>
-      <c r="J120" s="34"/>
+      <c r="E120" s="29"/>
+      <c r="G120" s="31"/>
+      <c r="H120" s="31"/>
+      <c r="J120" s="31"/>
     </row>
     <row r="121" spans="2:10" ht="24.75" customHeight="1" thickBot="1">
       <c r="B121" s="3" t="s">
@@ -3591,16 +3630,16 @@
         <v>19</v>
       </c>
       <c r="D121" s="7"/>
-      <c r="E121" s="32"/>
-      <c r="G121" s="34"/>
-      <c r="H121" s="34"/>
-      <c r="J121" s="34"/>
+      <c r="E121" s="29"/>
+      <c r="G121" s="31"/>
+      <c r="H121" s="31"/>
+      <c r="J121" s="31"/>
     </row>
     <row r="122" spans="2:10" ht="15" customHeight="1">
       <c r="B122" s="18"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
-      <c r="E122" s="32"/>
+      <c r="E122" s="29"/>
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
     </row>
@@ -3610,7 +3649,7 @@
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
-      <c r="E123" s="32"/>
+      <c r="E123" s="29"/>
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
     </row>
@@ -3621,7 +3660,7 @@
       <c r="E124" s="12"/>
     </row>
     <row r="125" spans="2:10" ht="15" customHeight="1">
-      <c r="B125" s="28" t="s">
+      <c r="B125" s="26" t="s">
         <v>92</v>
       </c>
       <c r="C125" s="6"/>
@@ -3629,22 +3668,22 @@
       <c r="E125" s="12"/>
     </row>
     <row r="126" spans="2:10" ht="15" customHeight="1">
-      <c r="B126" s="28" t="s">
-        <v>209</v>
+      <c r="B126" s="26" t="s">
+        <v>208</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="12"/>
     </row>
     <row r="127" spans="2:10" ht="15" customHeight="1">
-      <c r="B127" s="28"/>
+      <c r="B127" s="26"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="12"/>
     </row>
     <row r="128" spans="2:10" ht="15" customHeight="1">
-      <c r="B128" s="28" t="s">
-        <v>210</v>
+      <c r="B128" s="26" t="s">
+        <v>209</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -3664,7 +3703,7 @@
     </row>
     <row r="131" spans="2:8" ht="15" customHeight="1">
       <c r="B131" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -3680,7 +3719,7 @@
       <c r="B133" s="18"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
-      <c r="E133" s="32"/>
+      <c r="E133" s="29"/>
       <c r="G133" s="21"/>
     </row>
     <row r="134" spans="2:8" ht="25.2" customHeight="1" thickBot="1">
@@ -3715,24 +3754,33 @@
       <c r="C136" s="15">
         <v>4</v>
       </c>
-      <c r="D136" s="23">
+      <c r="D136" s="22">
         <v>0</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="G136" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="G136" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="H136" s="24" t="s">
+      <c r="H136" s="23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="137" spans="2:8">
+    <row r="137" spans="2:8" ht="23.4">
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
-      <c r="E137" s="22"/>
+      <c r="E137" s="5" t="str" cm="1">
+        <f t="array" ref="E137">_xlfn.SWITCH(H137, "Lower",LOWER(G137),"Proper",PROPER(G137),"Upper",UPPER(G137))</f>
+        <v>The Sun Rose Early.</v>
+      </c>
+      <c r="G137" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H137" s="23" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="138" spans="2:8" ht="23.25" customHeight="1">
       <c r="B138" s="15">
@@ -3741,17 +3789,17 @@
       <c r="C138" s="15">
         <v>4</v>
       </c>
-      <c r="D138" s="23">
+      <c r="D138" s="22">
         <v>7</v>
       </c>
       <c r="E138" s="5" t="str" cm="1">
         <f t="array" ref="E138">_xlfn.SWITCH(H138, "Lower",LOWER(G138),"Proper",PROPER(G138),"Upper",UPPER(G138))</f>
         <v>she danced with joy.</v>
       </c>
-      <c r="G138" s="24" t="s">
+      <c r="G138" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="H138" s="24" t="s">
+      <c r="H138" s="23" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3762,17 +3810,17 @@
       <c r="C139" s="15">
         <v>4</v>
       </c>
-      <c r="D139" s="23">
+      <c r="D139" s="22">
         <v>7</v>
       </c>
       <c r="E139" s="5" t="str" cm="1">
         <f t="array" ref="E139">_xlfn.SWITCH(H139, "Lower",LOWER(G139),"Proper",PROPER(G139),"Upper",UPPER(G139))</f>
         <v>he forgot his keys.</v>
       </c>
-      <c r="G139" s="24" t="s">
+      <c r="G139" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="H139" s="24" t="s">
+      <c r="H139" s="23" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3783,17 +3831,17 @@
       <c r="C140" s="15">
         <v>4</v>
       </c>
-      <c r="D140" s="23">
+      <c r="D140" s="22">
         <v>7</v>
       </c>
       <c r="E140" s="5" t="str" cm="1">
         <f t="array" ref="E140">_xlfn.SWITCH(H140, "Lower",LOWER(G140),"Proper",PROPER(G140),"Upper",UPPER(G140))</f>
         <v>the cat slept peacefully.</v>
       </c>
-      <c r="G140" s="24" t="s">
+      <c r="G140" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="H140" s="24" t="s">
+      <c r="H140" s="23" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3804,17 +3852,17 @@
       <c r="C141" s="15">
         <v>4</v>
       </c>
-      <c r="D141" s="23">
+      <c r="D141" s="22">
         <v>7</v>
       </c>
       <c r="E141" s="5" t="str" cm="1">
         <f t="array" ref="E141">_xlfn.SWITCH(H141, "Lower",LOWER(G141),"Proper",PROPER(G141),"Upper",UPPER(G141))</f>
         <v>We Laughed Out Loud.</v>
       </c>
-      <c r="G141" s="24" t="s">
+      <c r="G141" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H141" s="24" t="s">
+      <c r="H141" s="23" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3825,17 +3873,17 @@
       <c r="C142" s="15">
         <v>4</v>
       </c>
-      <c r="D142" s="23">
+      <c r="D142" s="22">
         <v>7</v>
       </c>
       <c r="E142" s="5" t="str" cm="1">
         <f t="array" ref="E142">_xlfn.SWITCH(H142, "Lower",LOWER(G142),"Proper",PROPER(G142),"Upper",UPPER(G142))</f>
         <v>the storm passed quickly.</v>
       </c>
-      <c r="G142" s="24" t="s">
+      <c r="G142" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="H142" s="24" t="s">
+      <c r="H142" s="23" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3846,17 +3894,17 @@
       <c r="C143" s="15">
         <v>4</v>
       </c>
-      <c r="D143" s="23">
+      <c r="D143" s="22">
         <v>7</v>
       </c>
       <c r="E143" s="5" t="str" cm="1">
         <f t="array" ref="E143">_xlfn.SWITCH(H143, "Lower",LOWER(G143),"Proper",PROPER(G143),"Upper",UPPER(G143))</f>
         <v>SHE LOVES TO READ BOOKS.</v>
       </c>
-      <c r="G143" s="24" t="s">
+      <c r="G143" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="H143" s="24" t="s">
+      <c r="H143" s="23" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3867,17 +3915,17 @@
       <c r="C144" s="15">
         <v>4</v>
       </c>
-      <c r="D144" s="23">
+      <c r="D144" s="22">
         <v>7</v>
       </c>
       <c r="E144" s="5" t="str" cm="1">
         <f t="array" ref="E144">_xlfn.SWITCH(H144, "Lower",LOWER(G144),"Proper",PROPER(G144),"Upper",UPPER(G144))</f>
         <v>They Walked To The Park.</v>
       </c>
-      <c r="G144" s="24" t="s">
+      <c r="G144" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="H144" s="24" t="s">
+      <c r="H144" s="23" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3888,17 +3936,17 @@
       <c r="C145" s="15">
         <v>4</v>
       </c>
-      <c r="D145" s="23">
+      <c r="D145" s="22">
         <v>7</v>
       </c>
       <c r="E145" s="5" t="str" cm="1">
         <f t="array" ref="E145">_xlfn.SWITCH(H145, "Lower",LOWER(G145),"Proper",PROPER(G145),"Upper",UPPER(G145))</f>
         <v>He Painted The Fence Blue.</v>
       </c>
-      <c r="G145" s="24" t="s">
+      <c r="G145" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="H145" s="24" t="s">
+      <c r="H145" s="23" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3909,17 +3957,17 @@
       <c r="C146" s="15">
         <v>4</v>
       </c>
-      <c r="D146" s="23">
+      <c r="D146" s="22">
         <v>7</v>
       </c>
       <c r="E146" s="5" t="str" cm="1">
         <f t="array" ref="E146">_xlfn.SWITCH(H146, "Lower",LOWER(G146),"Proper",PROPER(G146),"Upper",UPPER(G146))</f>
         <v>THE STARS SHONE BRIGHTLY.</v>
       </c>
-      <c r="G146" s="24" t="s">
+      <c r="G146" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="H146" s="24" t="s">
+      <c r="H146" s="23" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3930,17 +3978,17 @@
       <c r="C147" s="15">
         <v>4</v>
       </c>
-      <c r="D147" s="23">
+      <c r="D147" s="22">
         <v>7</v>
       </c>
       <c r="E147" s="5" t="str" cm="1">
         <f t="array" ref="E147">_xlfn.SWITCH(H147, "Lower",LOWER(G147),"Proper",PROPER(G147),"Upper",UPPER(G147))</f>
         <v>we baked cookies together.</v>
       </c>
-      <c r="G147" s="24" t="s">
+      <c r="G147" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="H147" s="24" t="s">
+      <c r="H147" s="23" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3951,17 +3999,17 @@
       <c r="C148" s="15">
         <v>4</v>
       </c>
-      <c r="D148" s="23">
+      <c r="D148" s="22">
         <v>7</v>
       </c>
       <c r="E148" s="5" t="str" cm="1">
         <f t="array" ref="E148">_xlfn.SWITCH(H148, "Lower",LOWER(G148),"Proper",PROPER(G148),"Upper",UPPER(G148))</f>
         <v>The Dog Wagged Its Tail.</v>
       </c>
-      <c r="G148" s="24" t="s">
+      <c r="G148" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="H148" s="24" t="s">
+      <c r="H148" s="23" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3972,17 +4020,17 @@
       <c r="C149" s="15">
         <v>4</v>
       </c>
-      <c r="D149" s="23">
+      <c r="D149" s="22">
         <v>7</v>
       </c>
       <c r="E149" s="5" t="str" cm="1">
         <f t="array" ref="E149">_xlfn.SWITCH(H149, "Lower",LOWER(G149),"Proper",PROPER(G149),"Upper",UPPER(G149))</f>
         <v>She Wore A Red Dress.</v>
       </c>
-      <c r="G149" s="24" t="s">
+      <c r="G149" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H149" s="24" t="s">
+      <c r="H149" s="23" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3993,17 +4041,17 @@
       <c r="C150" s="15">
         <v>4</v>
       </c>
-      <c r="D150" s="23">
+      <c r="D150" s="22">
         <v>7</v>
       </c>
       <c r="E150" s="5" t="str" cm="1">
         <f t="array" ref="E150">_xlfn.SWITCH(H150, "Lower",LOWER(G150),"Proper",PROPER(G150),"Upper",UPPER(G150))</f>
         <v>THE CHILD BUILT A SANDCASTLE.</v>
       </c>
-      <c r="G150" s="24" t="s">
+      <c r="G150" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="H150" s="24" t="s">
+      <c r="H150" s="23" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4014,17 +4062,17 @@
       <c r="C151" s="15">
         <v>4</v>
       </c>
-      <c r="D151" s="23">
+      <c r="D151" s="22">
         <v>7</v>
       </c>
       <c r="E151" s="5" t="str" cm="1">
         <f t="array" ref="E151">_xlfn.SWITCH(H151, "Lower",LOWER(G151),"Proper",PROPER(G151),"Upper",UPPER(G151))</f>
         <v>The Clock Struck Midnight.</v>
       </c>
-      <c r="G151" s="24" t="s">
+      <c r="G151" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="H151" s="24" t="s">
+      <c r="H151" s="23" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4035,17 +4083,17 @@
       <c r="C152" s="15">
         <v>4</v>
       </c>
-      <c r="D152" s="23">
+      <c r="D152" s="22">
         <v>7</v>
       </c>
       <c r="E152" s="5" t="str" cm="1">
         <f t="array" ref="E152">_xlfn.SWITCH(H152, "Lower",LOWER(G152),"Proper",PROPER(G152),"Upper",UPPER(G152))</f>
         <v>he planted a small tree.</v>
       </c>
-      <c r="G152" s="24" t="s">
+      <c r="G152" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="H152" s="24" t="s">
+      <c r="H152" s="23" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4056,17 +4104,17 @@
       <c r="C153" s="15">
         <v>4</v>
       </c>
-      <c r="D153" s="23">
+      <c r="D153" s="22">
         <v>7</v>
       </c>
       <c r="E153" s="5" t="str" cm="1">
         <f t="array" ref="E153">_xlfn.SWITCH(H153, "Lower",LOWER(G153),"Proper",PROPER(G153),"Upper",UPPER(G153))</f>
         <v>they cheered for the team.</v>
       </c>
-      <c r="G153" s="24" t="s">
+      <c r="G153" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="H153" s="24" t="s">
+      <c r="H153" s="23" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4077,17 +4125,17 @@
       <c r="C154" s="15">
         <v>4</v>
       </c>
-      <c r="D154" s="23">
+      <c r="D154" s="22">
         <v>7</v>
       </c>
       <c r="E154" s="5" t="str" cm="1">
         <f t="array" ref="E154">_xlfn.SWITCH(H154, "Lower",LOWER(G154),"Proper",PROPER(G154),"Upper",UPPER(G154))</f>
         <v>THE BIRD SANG A SWEET TUNE.</v>
       </c>
-      <c r="G154" s="24" t="s">
+      <c r="G154" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="H154" s="24" t="s">
+      <c r="H154" s="23" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4098,17 +4146,17 @@
       <c r="C155" s="15">
         <v>4</v>
       </c>
-      <c r="D155" s="23">
+      <c r="D155" s="22">
         <v>7</v>
       </c>
       <c r="E155" s="5" t="str" cm="1">
         <f t="array" ref="E155">_xlfn.SWITCH(H155, "Lower",LOWER(G155),"Proper",PROPER(G155),"Upper",UPPER(G155))</f>
         <v>SHE CLIMBED THE TALL MOUNTAIN.</v>
       </c>
-      <c r="G155" s="24" t="s">
+      <c r="G155" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="H155" s="24" t="s">
+      <c r="H155" s="23" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4119,17 +4167,17 @@
       <c r="C156" s="15">
         <v>4</v>
       </c>
-      <c r="D156" s="23">
+      <c r="D156" s="22">
         <v>7</v>
       </c>
       <c r="E156" s="5" t="str" cm="1">
         <f t="array" ref="E156">_xlfn.SWITCH(H156, "Lower",LOWER(G156),"Proper",PROPER(G156),"Upper",UPPER(G156))</f>
         <v>THE PHONE RANG SUDDENLY.</v>
       </c>
-      <c r="G156" s="24" t="s">
+      <c r="G156" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="H156" s="24" t="s">
+      <c r="H156" s="23" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4140,17 +4188,17 @@
       <c r="C157" s="15">
         <v>4</v>
       </c>
-      <c r="D157" s="23">
+      <c r="D157" s="22">
         <v>7</v>
       </c>
       <c r="E157" s="5" t="str" cm="1">
         <f t="array" ref="E157">_xlfn.SWITCH(H157, "Lower",LOWER(G157),"Proper",PROPER(G157),"Upper",UPPER(G157))</f>
         <v>he smiled at the stranger.</v>
       </c>
-      <c r="G157" s="24" t="s">
+      <c r="G157" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="H157" s="24" t="s">
+      <c r="H157" s="23" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4158,35 +4206,35 @@
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
-      <c r="E158" s="32"/>
-      <c r="G158" s="34"/>
-      <c r="H158" s="34"/>
+      <c r="E158" s="29"/>
+      <c r="G158" s="31"/>
+      <c r="H158" s="31"/>
     </row>
     <row r="159" spans="2:8" ht="31.2">
       <c r="B159" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C159" s="15">
         <f>C157</f>
         <v>4</v>
       </c>
-      <c r="D159" s="23">
+      <c r="D159" s="22">
         <v>0</v>
       </c>
-      <c r="E159" s="48" t="str">
+      <c r="E159" s="45" t="str">
         <f>_xlfn.TEXTJOIN(";",FALSE,E138:E157)</f>
         <v>she danced with joy.;he forgot his keys.;the cat slept peacefully.;We Laughed Out Loud.;the storm passed quickly.;SHE LOVES TO READ BOOKS.;They Walked To The Park.;He Painted The Fence Blue.;THE STARS SHONE BRIGHTLY.;we baked cookies together.;The Dog Wagged Its Tail.;She Wore A Red Dress.;THE CHILD BUILT A SANDCASTLE.;The Clock Struck Midnight.;he planted a small tree.;they cheered for the team.;THE BIRD SANG A SWEET TUNE.;SHE CLIMBED THE TALL MOUNTAIN.;THE PHONE RANG SUDDENLY.;he smiled at the stranger.</v>
       </c>
-      <c r="G159" s="34"/>
-      <c r="H159" s="34"/>
+      <c r="G159" s="31"/>
+      <c r="H159" s="31"/>
     </row>
     <row r="160" spans="2:8" ht="15" thickBot="1">
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
-      <c r="E160" s="32"/>
-      <c r="G160" s="34"/>
-      <c r="H160" s="34"/>
+      <c r="E160" s="29"/>
+      <c r="G160" s="31"/>
+      <c r="H160" s="31"/>
     </row>
     <row r="161" spans="1:11" ht="24.75" customHeight="1" thickBot="1">
       <c r="B161" s="3" t="s">
@@ -4196,17 +4244,17 @@
         <v>12</v>
       </c>
       <c r="D161" s="7"/>
-      <c r="E161" s="32"/>
+      <c r="E161" s="29"/>
       <c r="I161" s="7"/>
-      <c r="J161" s="34"/>
-      <c r="K161" s="34"/>
+      <c r="J161" s="31"/>
+      <c r="K161" s="31"/>
     </row>
     <row r="162" spans="1:11" ht="15" customHeight="1">
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
-      <c r="E162" s="32"/>
-      <c r="J162" s="34"/>
-      <c r="K162" s="34"/>
+      <c r="E162" s="29"/>
+      <c r="J162" s="31"/>
+      <c r="K162" s="31"/>
     </row>
     <row r="163" spans="1:11" ht="15" customHeight="1">
       <c r="A163" s="7"/>
@@ -4215,38 +4263,38 @@
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
-      <c r="E163" s="34"/>
-      <c r="J163" s="34"/>
-      <c r="K163" s="34"/>
+      <c r="E163" s="31"/>
+      <c r="J163" s="31"/>
+      <c r="K163" s="31"/>
     </row>
     <row r="164" spans="1:11" ht="15" customHeight="1">
       <c r="A164" s="7"/>
       <c r="B164" s="18"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
-      <c r="E164" s="34"/>
-      <c r="J164" s="34"/>
-      <c r="K164" s="34"/>
+      <c r="E164" s="31"/>
+      <c r="J164" s="31"/>
+      <c r="K164" s="31"/>
     </row>
     <row r="165" spans="1:11" ht="15" customHeight="1">
       <c r="A165" s="7"/>
-      <c r="B165" s="28" t="s">
+      <c r="B165" s="26" t="s">
         <v>103</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
-      <c r="E165" s="34"/>
-      <c r="J165" s="34"/>
-      <c r="K165" s="34"/>
+      <c r="E165" s="31"/>
+      <c r="J165" s="31"/>
+      <c r="K165" s="31"/>
     </row>
     <row r="166" spans="1:11" ht="15" customHeight="1">
       <c r="A166" s="7"/>
-      <c r="B166" s="28"/>
+      <c r="B166" s="26"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
-      <c r="E166" s="34"/>
-      <c r="J166" s="34"/>
-      <c r="K166" s="34"/>
+      <c r="E166" s="31"/>
+      <c r="J166" s="31"/>
+      <c r="K166" s="31"/>
     </row>
     <row r="167" spans="1:11" ht="15" customHeight="1">
       <c r="A167" s="7"/>
@@ -4254,25 +4302,25 @@
         <v>104</v>
       </c>
       <c r="D167" s="7"/>
-      <c r="E167" s="34"/>
-      <c r="J167" s="34"/>
-      <c r="K167" s="34"/>
+      <c r="E167" s="31"/>
+      <c r="J167" s="31"/>
+      <c r="K167" s="31"/>
     </row>
     <row r="168" spans="1:11" ht="15" customHeight="1">
       <c r="A168" s="7"/>
-      <c r="B168" s="28"/>
+      <c r="B168" s="26"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
-      <c r="E168" s="34"/>
-      <c r="J168" s="34"/>
-      <c r="K168" s="34"/>
+      <c r="E168" s="31"/>
+      <c r="J168" s="31"/>
+      <c r="K168" s="31"/>
     </row>
     <row r="169" spans="1:11" ht="15" customHeight="1">
       <c r="A169" s="7"/>
       <c r="D169" s="7"/>
-      <c r="E169" s="34"/>
-      <c r="J169" s="34"/>
-      <c r="K169" s="34"/>
+      <c r="E169" s="31"/>
+      <c r="J169" s="31"/>
+      <c r="K169" s="31"/>
     </row>
     <row r="170" spans="1:11" ht="15" customHeight="1">
       <c r="A170" s="7"/>
@@ -4281,64 +4329,64 @@
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="7"/>
-      <c r="E170" s="34"/>
+      <c r="E170" s="31"/>
       <c r="G170" s="7"/>
       <c r="H170" s="7"/>
       <c r="I170" s="7"/>
-      <c r="J170" s="34"/>
-      <c r="K170" s="34"/>
+      <c r="J170" s="31"/>
+      <c r="K170" s="31"/>
     </row>
     <row r="171" spans="1:11" ht="15" customHeight="1">
       <c r="B171" s="18"/>
       <c r="C171" s="6"/>
-      <c r="D171" s="35"/>
-      <c r="E171" s="36"/>
-      <c r="G171" s="35"/>
-      <c r="H171" s="35"/>
-      <c r="I171" s="35"/>
-      <c r="J171" s="35"/>
+      <c r="D171" s="32"/>
+      <c r="E171" s="33"/>
+      <c r="G171" s="32"/>
+      <c r="H171" s="32"/>
+      <c r="I171" s="32"/>
+      <c r="J171" s="32"/>
     </row>
     <row r="172" spans="1:11" ht="15" customHeight="1">
       <c r="B172" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C172" s="6"/>
-      <c r="D172" s="35"/>
-      <c r="E172" s="36"/>
-      <c r="G172" s="35"/>
-      <c r="H172" s="35"/>
-      <c r="I172" s="35"/>
-      <c r="J172" s="35"/>
+      <c r="D172" s="32"/>
+      <c r="E172" s="33"/>
+      <c r="G172" s="32"/>
+      <c r="H172" s="32"/>
+      <c r="I172" s="32"/>
+      <c r="J172" s="32"/>
     </row>
     <row r="173" spans="1:11" ht="15" customHeight="1">
       <c r="B173" s="18"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
-      <c r="E173" s="36"/>
-      <c r="G173" s="35"/>
-      <c r="H173" s="35"/>
-      <c r="I173" s="35"/>
-      <c r="J173" s="35"/>
+      <c r="E173" s="33"/>
+      <c r="G173" s="32"/>
+      <c r="H173" s="32"/>
+      <c r="I173" s="32"/>
+      <c r="J173" s="32"/>
     </row>
     <row r="174" spans="1:11" ht="15" customHeight="1">
       <c r="B174" s="18"/>
       <c r="C174" s="6"/>
-      <c r="D174" s="35"/>
-      <c r="E174" s="36"/>
-      <c r="G174" s="35"/>
-      <c r="H174" s="35"/>
-      <c r="I174" s="35"/>
-      <c r="J174" s="35"/>
+      <c r="D174" s="32"/>
+      <c r="E174" s="33"/>
+      <c r="G174" s="32"/>
+      <c r="H174" s="32"/>
+      <c r="I174" s="32"/>
+      <c r="J174" s="32"/>
     </row>
     <row r="175" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="B175" s="18"/>
       <c r="C175" s="7"/>
-      <c r="D175" s="35"/>
-      <c r="E175" s="36"/>
-      <c r="G175" s="35"/>
-      <c r="H175" s="35"/>
-      <c r="I175" s="35"/>
-      <c r="J175" s="35"/>
+      <c r="D175" s="32"/>
+      <c r="E175" s="33"/>
+      <c r="G175" s="32"/>
+      <c r="H175" s="32"/>
+      <c r="I175" s="32"/>
+      <c r="J175" s="32"/>
     </row>
     <row r="176" spans="1:11" ht="25.2" customHeight="1" thickBot="1">
       <c r="B176" s="1" t="s">
@@ -4371,8 +4419,8 @@
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
-      <c r="H177" s="37"/>
-      <c r="J177" s="37"/>
+      <c r="H177" s="34"/>
+      <c r="J177" s="34"/>
       <c r="K177" s="20"/>
     </row>
     <row r="178" spans="2:11" ht="23.4">
@@ -4382,34 +4430,46 @@
       <c r="C178" s="15">
         <v>5</v>
       </c>
-      <c r="D178" s="23">
+      <c r="D178" s="22">
         <v>0</v>
       </c>
       <c r="E178" s="5">
         <v>14</v>
       </c>
-      <c r="G178" s="24" t="s">
+      <c r="G178" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="H178" s="24" t="s">
+      <c r="H178" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I178" s="33" t="s">
+      <c r="I178" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="J178" s="24" t="s">
+      <c r="J178" s="23" t="s">
         <v>108</v>
       </c>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="2:11">
+    <row r="179" spans="2:11" ht="23.4">
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
-      <c r="G179" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="I179" s="25"/>
+      <c r="E179" s="5">
+        <f>SEARCH(G179,_xlfn.CONCAT(H179:J179))</f>
+        <v>14</v>
+      </c>
+      <c r="G179" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H179" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="I179" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="J179" s="23" t="s">
+        <v>108</v>
+      </c>
       <c r="K179" s="20"/>
     </row>
     <row r="180" spans="2:11" ht="23.25" customHeight="1">
@@ -4419,20 +4479,23 @@
       <c r="C180" s="15">
         <v>5</v>
       </c>
-      <c r="D180" s="23">
+      <c r="D180" s="22">
         <v>8</v>
       </c>
-      <c r="E180" s="5"/>
-      <c r="G180" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="H180" s="24" t="s">
+      <c r="E180" s="5">
+        <f>SEARCH(G180,_xlfn.CONCAT(H180:J180))</f>
+        <v>1</v>
+      </c>
+      <c r="G180" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="H180" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="I180" s="33" t="s">
+      <c r="I180" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="J180" s="24" t="s">
+      <c r="J180" s="23" t="s">
         <v>111</v>
       </c>
       <c r="K180" s="20"/>
@@ -4444,20 +4507,23 @@
       <c r="C181" s="15">
         <v>5</v>
       </c>
-      <c r="D181" s="23">
+      <c r="D181" s="22">
         <v>8</v>
       </c>
-      <c r="E181" s="5"/>
-      <c r="G181" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="H181" s="24" t="s">
+      <c r="E181" s="5">
+        <f t="shared" ref="E181:E199" si="2">SEARCH(G181,_xlfn.CONCAT(H181:J181))</f>
+        <v>4</v>
+      </c>
+      <c r="G181" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="H181" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="I181" s="33" t="s">
+      <c r="I181" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="J181" s="24" t="s">
+      <c r="J181" s="23" t="s">
         <v>114</v>
       </c>
       <c r="K181" s="20"/>
@@ -4469,20 +4535,23 @@
       <c r="C182" s="15">
         <v>5</v>
       </c>
-      <c r="D182" s="23">
+      <c r="D182" s="22">
         <v>8</v>
       </c>
-      <c r="E182" s="5"/>
-      <c r="G182" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="H182" s="24" t="s">
+      <c r="E182" s="5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="G182" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="H182" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="I182" s="33" t="s">
+      <c r="I182" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="J182" s="24" t="s">
+      <c r="J182" s="23" t="s">
         <v>117</v>
       </c>
       <c r="K182" s="20"/>
@@ -4494,20 +4563,23 @@
       <c r="C183" s="15">
         <v>5</v>
       </c>
-      <c r="D183" s="23">
+      <c r="D183" s="22">
         <v>8</v>
       </c>
-      <c r="E183" s="5"/>
-      <c r="G183" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="H183" s="24" t="s">
+      <c r="E183" s="5">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G183" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="H183" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="I183" s="33" t="s">
+      <c r="I183" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="J183" s="24" t="s">
+      <c r="J183" s="23" t="s">
         <v>120</v>
       </c>
       <c r="K183" s="20"/>
@@ -4519,20 +4591,23 @@
       <c r="C184" s="15">
         <v>5</v>
       </c>
-      <c r="D184" s="23">
+      <c r="D184" s="22">
         <v>8</v>
       </c>
-      <c r="E184" s="5"/>
-      <c r="G184" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="H184" s="24" t="s">
+      <c r="E184" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G184" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="H184" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="I184" s="33" t="s">
+      <c r="I184" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="J184" s="24" t="s">
+      <c r="J184" s="23" t="s">
         <v>123</v>
       </c>
       <c r="K184" s="20"/>
@@ -4544,20 +4619,23 @@
       <c r="C185" s="15">
         <v>5</v>
       </c>
-      <c r="D185" s="23">
+      <c r="D185" s="22">
         <v>8</v>
       </c>
-      <c r="E185" s="5"/>
-      <c r="G185" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="H185" s="24" t="s">
+      <c r="E185" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G185" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="H185" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="I185" s="33" t="s">
+      <c r="I185" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="J185" s="24" t="s">
+      <c r="J185" s="23" t="s">
         <v>126</v>
       </c>
       <c r="K185" s="20"/>
@@ -4569,20 +4647,23 @@
       <c r="C186" s="15">
         <v>5</v>
       </c>
-      <c r="D186" s="23">
+      <c r="D186" s="22">
         <v>8</v>
       </c>
-      <c r="E186" s="5"/>
-      <c r="G186" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="H186" s="24" t="s">
+      <c r="E186" s="5">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="G186" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H186" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="I186" s="33" t="s">
+      <c r="I186" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="J186" s="24" t="s">
+      <c r="J186" s="23" t="s">
         <v>129</v>
       </c>
       <c r="K186" s="20"/>
@@ -4594,20 +4675,23 @@
       <c r="C187" s="15">
         <v>5</v>
       </c>
-      <c r="D187" s="23">
+      <c r="D187" s="22">
         <v>8</v>
       </c>
-      <c r="E187" s="5"/>
-      <c r="G187" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="H187" s="24" t="s">
+      <c r="E187" s="5">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="G187" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="H187" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="I187" s="33" t="s">
+      <c r="I187" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="J187" s="24" t="s">
+      <c r="J187" s="23" t="s">
         <v>132</v>
       </c>
       <c r="K187" s="20"/>
@@ -4619,20 +4703,23 @@
       <c r="C188" s="15">
         <v>5</v>
       </c>
-      <c r="D188" s="23">
+      <c r="D188" s="22">
         <v>8</v>
       </c>
-      <c r="E188" s="5"/>
-      <c r="G188" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="H188" s="24" t="s">
+      <c r="E188" s="5">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="G188" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="H188" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="I188" s="33" t="s">
+      <c r="I188" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="J188" s="24" t="s">
+      <c r="J188" s="23" t="s">
         <v>135</v>
       </c>
       <c r="K188" s="20"/>
@@ -4644,20 +4731,23 @@
       <c r="C189" s="15">
         <v>5</v>
       </c>
-      <c r="D189" s="23">
+      <c r="D189" s="22">
         <v>8</v>
       </c>
-      <c r="E189" s="5"/>
-      <c r="G189" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="H189" s="24" t="s">
+      <c r="E189" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G189" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="H189" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="I189" s="33" t="s">
+      <c r="I189" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="J189" s="24" t="s">
+      <c r="J189" s="23" t="s">
         <v>138</v>
       </c>
       <c r="K189" s="20"/>
@@ -4669,20 +4759,23 @@
       <c r="C190" s="15">
         <v>5</v>
       </c>
-      <c r="D190" s="23">
+      <c r="D190" s="22">
         <v>8</v>
       </c>
-      <c r="E190" s="5"/>
-      <c r="G190" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="H190" s="24" t="s">
+      <c r="E190" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G190" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="H190" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="I190" s="33" t="s">
+      <c r="I190" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="J190" s="24" t="s">
+      <c r="J190" s="23" t="s">
         <v>141</v>
       </c>
       <c r="K190" s="20"/>
@@ -4694,20 +4787,23 @@
       <c r="C191" s="15">
         <v>5</v>
       </c>
-      <c r="D191" s="23">
+      <c r="D191" s="22">
         <v>8</v>
       </c>
-      <c r="E191" s="5"/>
-      <c r="G191" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="H191" s="24" t="s">
+      <c r="E191" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G191" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="H191" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="I191" s="33" t="s">
+      <c r="I191" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="J191" s="24" t="s">
+      <c r="J191" s="23" t="s">
         <v>144</v>
       </c>
       <c r="K191" s="20"/>
@@ -4719,20 +4815,23 @@
       <c r="C192" s="15">
         <v>5</v>
       </c>
-      <c r="D192" s="23">
+      <c r="D192" s="22">
         <v>8</v>
       </c>
-      <c r="E192" s="5"/>
-      <c r="G192" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="H192" s="24" t="s">
+      <c r="E192" s="5">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="G192" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="H192" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="I192" s="33" t="s">
+      <c r="I192" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="J192" s="24" t="s">
+      <c r="J192" s="23" t="s">
         <v>147</v>
       </c>
       <c r="K192" s="20"/>
@@ -4744,20 +4843,23 @@
       <c r="C193" s="15">
         <v>5</v>
       </c>
-      <c r="D193" s="23">
+      <c r="D193" s="22">
         <v>8</v>
       </c>
-      <c r="E193" s="5"/>
-      <c r="G193" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="H193" s="24" t="s">
+      <c r="E193" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G193" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="H193" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="I193" s="33" t="s">
+      <c r="I193" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="J193" s="24" t="s">
+      <c r="J193" s="23" t="s">
         <v>150</v>
       </c>
       <c r="K193" s="20"/>
@@ -4769,20 +4871,23 @@
       <c r="C194" s="15">
         <v>5</v>
       </c>
-      <c r="D194" s="23">
+      <c r="D194" s="22">
         <v>8</v>
       </c>
-      <c r="E194" s="5"/>
-      <c r="G194" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="H194" s="24" t="s">
+      <c r="E194" s="5">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="G194" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="H194" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="I194" s="33" t="s">
+      <c r="I194" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="J194" s="24" t="s">
+      <c r="J194" s="23" t="s">
         <v>153</v>
       </c>
       <c r="K194" s="20"/>
@@ -4794,20 +4899,23 @@
       <c r="C195" s="15">
         <v>5</v>
       </c>
-      <c r="D195" s="23">
+      <c r="D195" s="22">
         <v>8</v>
       </c>
-      <c r="E195" s="5"/>
-      <c r="G195" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="H195" s="24" t="s">
+      <c r="E195" s="5">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="G195" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="H195" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="I195" s="33" t="s">
+      <c r="I195" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="J195" s="24" t="s">
+      <c r="J195" s="23" t="s">
         <v>156</v>
       </c>
       <c r="K195" s="20"/>
@@ -4819,20 +4927,23 @@
       <c r="C196" s="15">
         <v>5</v>
       </c>
-      <c r="D196" s="23">
+      <c r="D196" s="22">
         <v>8</v>
       </c>
-      <c r="E196" s="5"/>
-      <c r="G196" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="H196" s="24" t="s">
+      <c r="E196" s="5">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="G196" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="H196" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="I196" s="33" t="s">
+      <c r="I196" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="J196" s="24" t="s">
+      <c r="J196" s="23" t="s">
         <v>159</v>
       </c>
       <c r="K196" s="20"/>
@@ -4844,20 +4955,23 @@
       <c r="C197" s="15">
         <v>5</v>
       </c>
-      <c r="D197" s="23">
+      <c r="D197" s="22">
         <v>8</v>
       </c>
-      <c r="E197" s="5"/>
-      <c r="G197" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="H197" s="24" t="s">
+      <c r="E197" s="5">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="G197" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="H197" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="I197" s="33" t="s">
+      <c r="I197" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="J197" s="24" t="s">
+      <c r="J197" s="23" t="s">
         <v>162</v>
       </c>
       <c r="K197" s="20"/>
@@ -4869,20 +4983,23 @@
       <c r="C198" s="15">
         <v>5</v>
       </c>
-      <c r="D198" s="23">
+      <c r="D198" s="22">
         <v>8</v>
       </c>
-      <c r="E198" s="5"/>
-      <c r="G198" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="H198" s="24" t="s">
+      <c r="E198" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G198" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H198" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="I198" s="33" t="s">
+      <c r="I198" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="J198" s="24" t="s">
+      <c r="J198" s="23" t="s">
         <v>165</v>
       </c>
       <c r="K198" s="20"/>
@@ -4894,20 +5011,23 @@
       <c r="C199" s="15">
         <v>5</v>
       </c>
-      <c r="D199" s="23">
+      <c r="D199" s="22">
         <v>8</v>
       </c>
-      <c r="E199" s="5"/>
-      <c r="G199" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="H199" s="24" t="s">
+      <c r="E199" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G199" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="H199" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="I199" s="33" t="s">
+      <c r="I199" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="J199" s="24" t="s">
+      <c r="J199" s="23" t="s">
         <v>168</v>
       </c>
       <c r="K199" s="20"/>
@@ -4917,18 +5037,18 @@
     </row>
     <row r="201" spans="1:11" ht="31.2">
       <c r="B201" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C201" s="15">
         <f>C199</f>
         <v>5</v>
       </c>
-      <c r="D201" s="23">
+      <c r="D201" s="22">
         <v>0</v>
       </c>
-      <c r="E201" s="48" t="str">
+      <c r="E201" s="45" t="str">
         <f>_xlfn.TEXTJOIN(";",FALSE,E180:E199)</f>
-        <v>;;;;;;;;;;;;;;;;;;;</v>
+        <v>1;4;9;16;5;1;13;22;11;4;1;5;11;5;14;14;17;13;5;4</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="15" customHeight="1" thickBot="1">
@@ -4942,7 +5062,7 @@
         <v>15</v>
       </c>
       <c r="D203" s="7"/>
-      <c r="E203" s="32"/>
+      <c r="E203" s="29"/>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
       <c r="K203" s="7"/>
@@ -4953,72 +5073,72 @@
       </c>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
-      <c r="E204" s="32"/>
+      <c r="E204" s="29"/>
     </row>
     <row r="205" spans="1:11" ht="15" customHeight="1">
       <c r="A205" s="7"/>
       <c r="B205" s="18"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
-      <c r="E205" s="34"/>
+      <c r="E205" s="31"/>
     </row>
     <row r="206" spans="1:11" ht="15" customHeight="1">
       <c r="A206" s="7"/>
       <c r="B206" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
-      <c r="E206" s="34"/>
+      <c r="E206" s="31"/>
     </row>
     <row r="207" spans="1:11" ht="15" customHeight="1">
       <c r="A207" s="7"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
-      <c r="E207" s="34"/>
+      <c r="E207" s="31"/>
     </row>
     <row r="208" spans="1:11" ht="15" customHeight="1">
       <c r="A208" s="7"/>
       <c r="B208" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
-      <c r="E208" s="34"/>
+      <c r="E208" s="31"/>
     </row>
     <row r="209" spans="1:11" ht="15" customHeight="1">
       <c r="A209" s="7"/>
       <c r="B209" s="18"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
-      <c r="E209" s="34"/>
+      <c r="E209" s="31"/>
     </row>
     <row r="210" spans="1:11" ht="15" customHeight="1">
       <c r="A210" s="7"/>
       <c r="B210" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
-      <c r="E210" s="34"/>
+      <c r="E210" s="31"/>
     </row>
     <row r="211" spans="1:11" ht="15" customHeight="1">
       <c r="A211" s="7"/>
       <c r="B211" s="18"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
-      <c r="E211" s="34"/>
+      <c r="E211" s="31"/>
     </row>
     <row r="212" spans="1:11" ht="15" customHeight="1">
       <c r="A212" s="7"/>
-      <c r="B212" s="38" t="s">
-        <v>193</v>
+      <c r="B212" s="35" t="s">
+        <v>192</v>
       </c>
       <c r="C212" s="7"/>
       <c r="D212" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E212" s="34"/>
+        <v>226</v>
+      </c>
+      <c r="E212" s="31"/>
       <c r="G212" s="7"/>
       <c r="H212" s="7"/>
       <c r="I212" s="7"/>
@@ -5027,112 +5147,112 @@
     </row>
     <row r="213" spans="1:11" ht="15" customHeight="1">
       <c r="A213" s="7"/>
-      <c r="B213" s="44" cm="1">
+      <c r="B213" s="41" cm="1">
         <f t="array" ref="B213:B215">_xlfn.SEQUENCE(3,,1,2)</f>
         <v>1</v>
       </c>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
-      <c r="E213" s="34"/>
+      <c r="E213" s="31"/>
       <c r="G213" s="7"/>
       <c r="H213" s="7"/>
       <c r="I213" s="7"/>
     </row>
     <row r="214" spans="1:11" ht="15" customHeight="1">
       <c r="A214" s="7"/>
-      <c r="B214" s="44">
+      <c r="B214" s="41">
         <v>3</v>
       </c>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
-      <c r="E214" s="34"/>
+      <c r="E214" s="31"/>
       <c r="G214" s="7"/>
       <c r="H214" s="7"/>
       <c r="I214" s="7"/>
     </row>
     <row r="215" spans="1:11" ht="15" customHeight="1">
-      <c r="B215" s="44">
+      <c r="B215" s="41">
         <v>5</v>
       </c>
-      <c r="C215" s="35"/>
-      <c r="D215" s="35"/>
-      <c r="E215" s="35"/>
-      <c r="G215" s="35"/>
-      <c r="H215" s="35"/>
-      <c r="I215" s="35"/>
+      <c r="C215" s="32"/>
+      <c r="D215" s="32"/>
+      <c r="E215" s="32"/>
+      <c r="G215" s="32"/>
+      <c r="H215" s="32"/>
+      <c r="I215" s="32"/>
     </row>
     <row r="216" spans="1:11" ht="15" customHeight="1">
-      <c r="B216" s="39"/>
+      <c r="B216" s="36"/>
       <c r="C216" s="7"/>
-      <c r="D216" s="35"/>
-      <c r="E216" s="35"/>
-      <c r="G216" s="35"/>
-      <c r="H216" s="35"/>
-      <c r="I216" s="35"/>
+      <c r="D216" s="32"/>
+      <c r="E216" s="32"/>
+      <c r="G216" s="32"/>
+      <c r="H216" s="32"/>
+      <c r="I216" s="32"/>
     </row>
     <row r="217" spans="1:11" ht="15" customHeight="1">
-      <c r="B217" s="40" t="s">
-        <v>212</v>
+      <c r="B217" s="37" t="s">
+        <v>211</v>
       </c>
       <c r="C217" s="7"/>
-      <c r="D217" s="35"/>
-      <c r="E217" s="35"/>
-      <c r="G217" s="35"/>
-      <c r="H217" s="35"/>
-      <c r="I217" s="35"/>
+      <c r="D217" s="32"/>
+      <c r="E217" s="32"/>
+      <c r="G217" s="32"/>
+      <c r="H217" s="32"/>
+      <c r="I217" s="32"/>
     </row>
     <row r="218" spans="1:11" ht="15" customHeight="1">
-      <c r="B218" s="39"/>
+      <c r="B218" s="36"/>
       <c r="C218" s="7"/>
-      <c r="D218" s="35"/>
-      <c r="E218" s="35"/>
-      <c r="G218" s="35"/>
-      <c r="H218" s="35"/>
-      <c r="I218" s="35"/>
+      <c r="D218" s="32"/>
+      <c r="E218" s="32"/>
+      <c r="G218" s="32"/>
+      <c r="H218" s="32"/>
+      <c r="I218" s="32"/>
     </row>
     <row r="219" spans="1:11" ht="15" customHeight="1">
       <c r="B219" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C219" s="7"/>
-      <c r="D219" s="35"/>
-      <c r="E219" s="35"/>
-      <c r="G219" s="35"/>
-      <c r="H219" s="35"/>
-      <c r="I219" s="35"/>
+      <c r="D219" s="32"/>
+      <c r="E219" s="32"/>
+      <c r="G219" s="32"/>
+      <c r="H219" s="32"/>
+      <c r="I219" s="32"/>
     </row>
     <row r="220" spans="1:11" ht="15" customHeight="1">
       <c r="B220" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C220" s="7"/>
-      <c r="D220" s="35"/>
-      <c r="E220" s="35"/>
-      <c r="G220" s="35"/>
-      <c r="H220" s="35"/>
-      <c r="I220" s="35"/>
+      <c r="D220" s="32"/>
+      <c r="E220" s="32"/>
+      <c r="G220" s="32"/>
+      <c r="H220" s="32"/>
+      <c r="I220" s="32"/>
     </row>
     <row r="221" spans="1:11" ht="15" customHeight="1">
       <c r="B221" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
-      <c r="G221" s="35"/>
-      <c r="H221" s="35"/>
-      <c r="I221" s="35"/>
+      <c r="G221" s="32"/>
+      <c r="H221" s="32"/>
+      <c r="I221" s="32"/>
     </row>
     <row r="222" spans="1:11" ht="15" customHeight="1">
       <c r="B222" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
-      <c r="G222" s="35"/>
-      <c r="H222" s="35"/>
-      <c r="I222" s="35"/>
+      <c r="G222" s="32"/>
+      <c r="H222" s="32"/>
+      <c r="I222" s="32"/>
     </row>
     <row r="223" spans="1:11" ht="15" customHeight="1">
       <c r="B223" s="7" t="str" cm="1">
@@ -5151,47 +5271,47 @@
       <c r="F223" s="8" t="str">
         <v>y</v>
       </c>
-      <c r="G223" s="35"/>
-      <c r="H223" s="35"/>
-      <c r="I223" s="35"/>
+      <c r="G223" s="32"/>
+      <c r="H223" s="32"/>
+      <c r="I223" s="32"/>
     </row>
     <row r="224" spans="1:11" ht="15" customHeight="1">
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
-      <c r="G224" s="35"/>
-      <c r="H224" s="35"/>
-      <c r="I224" s="35"/>
+      <c r="G224" s="32"/>
+      <c r="H224" s="32"/>
+      <c r="I224" s="32"/>
     </row>
     <row r="225" spans="2:9" ht="15" customHeight="1">
-      <c r="B225" s="40" t="s">
-        <v>214</v>
+      <c r="B225" s="37" t="s">
+        <v>213</v>
       </c>
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
-      <c r="G225" s="35"/>
-      <c r="H225" s="35"/>
-      <c r="I225" s="35"/>
+      <c r="G225" s="32"/>
+      <c r="H225" s="32"/>
+      <c r="I225" s="32"/>
     </row>
     <row r="226" spans="2:9" ht="15" customHeight="1">
       <c r="B226" s="7"/>
-      <c r="C226" s="40"/>
+      <c r="C226" s="37"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
-      <c r="G226" s="35"/>
-      <c r="H226" s="35"/>
-      <c r="I226" s="35"/>
+      <c r="G226" s="32"/>
+      <c r="H226" s="32"/>
+      <c r="I226" s="32"/>
     </row>
     <row r="227" spans="2:9" ht="15" customHeight="1" thickBot="1">
-      <c r="B227" s="35"/>
-      <c r="C227" s="35"/>
-      <c r="D227" s="35"/>
-      <c r="E227" s="35"/>
-      <c r="G227" s="35"/>
-      <c r="H227" s="35"/>
-      <c r="I227" s="35"/>
+      <c r="B227" s="32"/>
+      <c r="C227" s="32"/>
+      <c r="D227" s="32"/>
+      <c r="E227" s="32"/>
+      <c r="G227" s="32"/>
+      <c r="H227" s="32"/>
+      <c r="I227" s="32"/>
     </row>
     <row r="228" spans="2:9" ht="15" thickBot="1">
       <c r="B228" s="1" t="s">
@@ -5209,15 +5329,15 @@
       <c r="G228" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H228" s="35"/>
-      <c r="I228" s="35"/>
+      <c r="H228" s="32"/>
+      <c r="I228" s="32"/>
     </row>
     <row r="229" spans="2:9">
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
-      <c r="H229" s="35"/>
-      <c r="I229" s="35"/>
+      <c r="H229" s="32"/>
+      <c r="I229" s="32"/>
     </row>
     <row r="230" spans="2:9" ht="23.4">
       <c r="B230" s="15" t="s">
@@ -5226,24 +5346,31 @@
       <c r="C230" s="15">
         <v>6</v>
       </c>
-      <c r="D230" s="23">
+      <c r="D230" s="22">
         <v>0</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G230" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G230" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H230" s="35"/>
-      <c r="I230" s="35"/>
-    </row>
-    <row r="231" spans="2:9">
+      <c r="H230" s="32"/>
+      <c r="I230" s="32"/>
+    </row>
+    <row r="231" spans="2:9" ht="23.4">
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
-      <c r="H231" s="35"/>
-      <c r="I231" s="35"/>
+      <c r="E231" s="5" t="str" cm="1">
+        <f t="array" ref="E231">_xlfn.TEXTJOIN("",,MID(G231,_xlfn.SEQUENCE(LEN(G231),1,LEN(G231),-1),1))</f>
+        <v>elpmaxE</v>
+      </c>
+      <c r="G231" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H231" s="32"/>
+      <c r="I231" s="32"/>
     </row>
     <row r="232" spans="2:9" ht="23.25" customHeight="1">
       <c r="B232" s="15">
@@ -5252,15 +5379,18 @@
       <c r="C232" s="15">
         <v>6</v>
       </c>
-      <c r="D232" s="23">
+      <c r="D232" s="22">
         <v>10</v>
       </c>
-      <c r="E232" s="5"/>
-      <c r="G232" s="24" t="s">
+      <c r="E232" s="5" t="str" cm="1">
+        <f t="array" ref="E232">_xlfn.TEXTJOIN("",,MID(G232,_xlfn.SEQUENCE(LEN(G232),1,LEN(G232),-1),1))</f>
+        <v>xobliam</v>
+      </c>
+      <c r="G232" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H232" s="35"/>
-      <c r="I232" s="35"/>
+      <c r="H232" s="32"/>
+      <c r="I232" s="32"/>
     </row>
     <row r="233" spans="2:9" ht="23.25" customHeight="1">
       <c r="B233" s="15">
@@ -5269,15 +5399,18 @@
       <c r="C233" s="15">
         <v>6</v>
       </c>
-      <c r="D233" s="23">
+      <c r="D233" s="22">
         <v>10</v>
       </c>
-      <c r="E233" s="5"/>
-      <c r="G233" s="24" t="s">
+      <c r="E233" s="5" t="str" cm="1">
+        <f t="array" ref="E233">_xlfn.TEXTJOIN("",,MID(G233,_xlfn.SEQUENCE(LEN(G233),1,LEN(G233),-1),1))</f>
+        <v>erutnevdA</v>
+      </c>
+      <c r="G233" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H233" s="35"/>
-      <c r="I233" s="35"/>
+      <c r="H233" s="32"/>
+      <c r="I233" s="32"/>
     </row>
     <row r="234" spans="2:9" ht="23.25" customHeight="1">
       <c r="B234" s="15">
@@ -5286,15 +5419,18 @@
       <c r="C234" s="15">
         <v>6</v>
       </c>
-      <c r="D234" s="23">
+      <c r="D234" s="22">
         <v>10</v>
       </c>
-      <c r="E234" s="5"/>
-      <c r="G234" s="24" t="s">
+      <c r="E234" s="5" t="str" cm="1">
+        <f t="array" ref="E234">_xlfn.TEXTJOIN("",,MID(G234,_xlfn.SEQUENCE(LEN(G234),1,LEN(G234),-1),1))</f>
+        <v>moorllaB</v>
+      </c>
+      <c r="G234" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H234" s="35"/>
-      <c r="I234" s="35"/>
+      <c r="H234" s="32"/>
+      <c r="I234" s="32"/>
     </row>
     <row r="235" spans="2:9" ht="23.25" customHeight="1">
       <c r="B235" s="15">
@@ -5303,15 +5439,18 @@
       <c r="C235" s="15">
         <v>6</v>
       </c>
-      <c r="D235" s="23">
+      <c r="D235" s="22">
         <v>10</v>
       </c>
-      <c r="E235" s="5"/>
-      <c r="G235" s="24" t="s">
+      <c r="E235" s="5" t="str" cm="1">
+        <f t="array" ref="E235">_xlfn.TEXTJOIN("",,MID(G235,_xlfn.SEQUENCE(LEN(G235),1,LEN(G235),-1),1))</f>
+        <v>engapmahC</v>
+      </c>
+      <c r="G235" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H235" s="35"/>
-      <c r="I235" s="35"/>
+      <c r="H235" s="32"/>
+      <c r="I235" s="32"/>
     </row>
     <row r="236" spans="2:9" ht="23.25" customHeight="1">
       <c r="B236" s="15">
@@ -5320,15 +5459,18 @@
       <c r="C236" s="15">
         <v>6</v>
       </c>
-      <c r="D236" s="23">
+      <c r="D236" s="22">
         <v>10</v>
       </c>
-      <c r="E236" s="5"/>
-      <c r="G236" s="24" t="s">
+      <c r="E236" s="5" t="str" cm="1">
+        <f t="array" ref="E236">_xlfn.TEXTJOIN("",,MID(G236,_xlfn.SEQUENCE(LEN(G236),1,LEN(G236),-1),1))</f>
+        <v>ylfrettuB</v>
+      </c>
+      <c r="G236" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H236" s="35"/>
-      <c r="I236" s="35"/>
+      <c r="H236" s="32"/>
+      <c r="I236" s="32"/>
     </row>
     <row r="237" spans="2:9" ht="23.25" customHeight="1">
       <c r="B237" s="15">
@@ -5337,15 +5479,18 @@
       <c r="C237" s="15">
         <v>6</v>
       </c>
-      <c r="D237" s="23">
+      <c r="D237" s="22">
         <v>10</v>
       </c>
-      <c r="E237" s="5"/>
-      <c r="G237" s="24" t="s">
+      <c r="E237" s="5" t="str" cm="1">
+        <f t="array" ref="E237">_xlfn.TEXTJOIN("",,MID(G237,_xlfn.SEQUENCE(LEN(G237),1,LEN(G237),-1),1))</f>
+        <v>rewolfnuS</v>
+      </c>
+      <c r="G237" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="H237" s="35"/>
-      <c r="I237" s="35"/>
+      <c r="H237" s="32"/>
+      <c r="I237" s="32"/>
     </row>
     <row r="238" spans="2:9" ht="23.25" customHeight="1">
       <c r="B238" s="15">
@@ -5354,15 +5499,18 @@
       <c r="C238" s="15">
         <v>6</v>
       </c>
-      <c r="D238" s="23">
+      <c r="D238" s="22">
         <v>10</v>
       </c>
-      <c r="E238" s="5"/>
-      <c r="G238" s="24" t="s">
+      <c r="E238" s="5" t="str" cm="1">
+        <f t="array" ref="E238">_xlfn.TEXTJOIN("",,MID(G238,_xlfn.SEQUENCE(LEN(G238),1,LEN(G238),-1),1))</f>
+        <v>tropsnarT</v>
+      </c>
+      <c r="G238" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H238" s="35"/>
-      <c r="I238" s="35"/>
+      <c r="H238" s="32"/>
+      <c r="I238" s="32"/>
     </row>
     <row r="239" spans="2:9" ht="23.25" customHeight="1">
       <c r="B239" s="15">
@@ -5371,15 +5519,18 @@
       <c r="C239" s="15">
         <v>6</v>
       </c>
-      <c r="D239" s="23">
+      <c r="D239" s="22">
         <v>10</v>
       </c>
-      <c r="E239" s="5"/>
-      <c r="G239" s="24" t="s">
+      <c r="E239" s="5" t="str" cm="1">
+        <f t="array" ref="E239">_xlfn.TEXTJOIN("",,MID(G239,_xlfn.SEQUENCE(LEN(G239),1,LEN(G239),-1),1))</f>
+        <v>pihsdneirF</v>
+      </c>
+      <c r="G239" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="H239" s="35"/>
-      <c r="I239" s="35"/>
+      <c r="H239" s="32"/>
+      <c r="I239" s="32"/>
     </row>
     <row r="240" spans="2:9" ht="23.25" customHeight="1">
       <c r="B240" s="15">
@@ -5388,15 +5539,18 @@
       <c r="C240" s="15">
         <v>6</v>
       </c>
-      <c r="D240" s="23">
+      <c r="D240" s="22">
         <v>10</v>
       </c>
-      <c r="E240" s="5"/>
-      <c r="G240" s="24" t="s">
+      <c r="E240" s="5" t="str" cm="1">
+        <f t="array" ref="E240">_xlfn.TEXTJOIN("",,MID(G240,_xlfn.SEQUENCE(LEN(G240),1,LEN(G240),-1),1))</f>
+        <v>lufrednoW</v>
+      </c>
+      <c r="G240" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="H240" s="35"/>
-      <c r="I240" s="35"/>
+      <c r="H240" s="32"/>
+      <c r="I240" s="32"/>
     </row>
     <row r="241" spans="2:9" ht="23.25" customHeight="1">
       <c r="B241" s="15">
@@ -5405,15 +5559,18 @@
       <c r="C241" s="15">
         <v>6</v>
       </c>
-      <c r="D241" s="23">
+      <c r="D241" s="22">
         <v>10</v>
       </c>
-      <c r="E241" s="5"/>
-      <c r="G241" s="24" t="s">
+      <c r="E241" s="5" t="str" cm="1">
+        <f t="array" ref="E241">_xlfn.TEXTJOIN("",,MID(G241,_xlfn.SEQUENCE(LEN(G241),1,LEN(G241),-1),1))</f>
+        <v>tnempiuqE</v>
+      </c>
+      <c r="G241" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H241" s="35"/>
-      <c r="I241" s="35"/>
+      <c r="H241" s="32"/>
+      <c r="I241" s="32"/>
     </row>
     <row r="242" spans="2:9" ht="23.25" customHeight="1">
       <c r="B242" s="15">
@@ -5422,15 +5579,18 @@
       <c r="C242" s="15">
         <v>6</v>
       </c>
-      <c r="D242" s="23">
+      <c r="D242" s="22">
         <v>10</v>
       </c>
-      <c r="E242" s="5"/>
-      <c r="G242" s="24" t="s">
+      <c r="E242" s="5" t="str" cm="1">
+        <f t="array" ref="E242">_xlfn.TEXTJOIN("",,MID(G242,_xlfn.SEQUENCE(LEN(G242),1,LEN(G242),-1),1))</f>
+        <v>egdelwonK</v>
+      </c>
+      <c r="G242" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H242" s="35"/>
-      <c r="I242" s="35"/>
+      <c r="H242" s="32"/>
+      <c r="I242" s="32"/>
     </row>
     <row r="243" spans="2:9" ht="23.25" customHeight="1">
       <c r="B243" s="15">
@@ -5439,15 +5599,18 @@
       <c r="C243" s="15">
         <v>6</v>
       </c>
-      <c r="D243" s="23">
+      <c r="D243" s="22">
         <v>10</v>
       </c>
-      <c r="E243" s="5"/>
-      <c r="G243" s="24" t="s">
+      <c r="E243" s="5" t="str" cm="1">
+        <f t="array" ref="E243">_xlfn.TEXTJOIN("",,MID(G243,_xlfn.SEQUENCE(LEN(G243),1,LEN(G243),-1),1))</f>
+        <v>evitceteD</v>
+      </c>
+      <c r="G243" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H243" s="35"/>
-      <c r="I243" s="35"/>
+      <c r="H243" s="32"/>
+      <c r="I243" s="32"/>
     </row>
     <row r="244" spans="2:9" ht="23.25" customHeight="1">
       <c r="B244" s="15">
@@ -5456,15 +5619,18 @@
       <c r="C244" s="15">
         <v>6</v>
       </c>
-      <c r="D244" s="23">
+      <c r="D244" s="22">
         <v>10</v>
       </c>
-      <c r="E244" s="5"/>
-      <c r="G244" s="24" t="s">
+      <c r="E244" s="5" t="str" cm="1">
+        <f t="array" ref="E244">_xlfn.TEXTJOIN("",,MID(G244,_xlfn.SEQUENCE(LEN(G244),1,LEN(G244),-1),1))</f>
+        <v>egarohcnA</v>
+      </c>
+      <c r="G244" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H244" s="35"/>
-      <c r="I244" s="35"/>
+      <c r="H244" s="32"/>
+      <c r="I244" s="32"/>
     </row>
     <row r="245" spans="2:9" ht="23.25" customHeight="1">
       <c r="B245" s="15">
@@ -5473,15 +5639,18 @@
       <c r="C245" s="15">
         <v>6</v>
       </c>
-      <c r="D245" s="23">
+      <c r="D245" s="22">
         <v>10</v>
       </c>
-      <c r="E245" s="5"/>
-      <c r="G245" s="24" t="s">
+      <c r="E245" s="5" t="str" cm="1">
+        <f t="array" ref="E245">_xlfn.TEXTJOIN("",,MID(G245,_xlfn.SEQUENCE(LEN(G245),1,LEN(G245),-1),1))</f>
+        <v>nworgrevO</v>
+      </c>
+      <c r="G245" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H245" s="35"/>
-      <c r="I245" s="35"/>
+      <c r="H245" s="32"/>
+      <c r="I245" s="32"/>
     </row>
     <row r="246" spans="2:9" ht="23.25" customHeight="1">
       <c r="B246" s="15">
@@ -5490,15 +5659,18 @@
       <c r="C246" s="15">
         <v>6</v>
       </c>
-      <c r="D246" s="23">
+      <c r="D246" s="22">
         <v>10</v>
       </c>
-      <c r="E246" s="5"/>
-      <c r="G246" s="24" t="s">
+      <c r="E246" s="5" t="str" cm="1">
+        <f t="array" ref="E246">_xlfn.TEXTJOIN("",,MID(G246,_xlfn.SEQUENCE(LEN(G246),1,LEN(G246),-1),1))</f>
+        <v>esuohneerG</v>
+      </c>
+      <c r="G246" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H246" s="35"/>
-      <c r="I246" s="35"/>
+      <c r="H246" s="32"/>
+      <c r="I246" s="32"/>
     </row>
     <row r="247" spans="2:9" ht="23.25" customHeight="1">
       <c r="B247" s="15">
@@ -5507,15 +5679,18 @@
       <c r="C247" s="15">
         <v>6</v>
       </c>
-      <c r="D247" s="23">
+      <c r="D247" s="22">
         <v>10</v>
       </c>
-      <c r="E247" s="5"/>
-      <c r="G247" s="24" t="s">
+      <c r="E247" s="5" t="str" cm="1">
+        <f t="array" ref="E247">_xlfn.TEXTJOIN("",,MID(G247,_xlfn.SEQUENCE(LEN(G247),1,LEN(G247),-1),1))</f>
+        <v>llafretaW</v>
+      </c>
+      <c r="G247" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H247" s="35"/>
-      <c r="I247" s="35"/>
+      <c r="H247" s="32"/>
+      <c r="I247" s="32"/>
     </row>
     <row r="248" spans="2:9" ht="23.25" customHeight="1">
       <c r="B248" s="15">
@@ -5524,15 +5699,18 @@
       <c r="C248" s="15">
         <v>6</v>
       </c>
-      <c r="D248" s="23">
+      <c r="D248" s="22">
         <v>10</v>
       </c>
-      <c r="E248" s="5"/>
-      <c r="G248" s="24" t="s">
+      <c r="E248" s="5" t="str" cm="1">
+        <f t="array" ref="E248">_xlfn.TEXTJOIN("",,MID(G248,_xlfn.SEQUENCE(LEN(G248),1,LEN(G248),-1),1))</f>
+        <v>noituloveR</v>
+      </c>
+      <c r="G248" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H248" s="35"/>
-      <c r="I248" s="35"/>
+      <c r="H248" s="32"/>
+      <c r="I248" s="32"/>
     </row>
     <row r="249" spans="2:9" ht="23.25" customHeight="1">
       <c r="B249" s="15">
@@ -5541,15 +5719,18 @@
       <c r="C249" s="15">
         <v>6</v>
       </c>
-      <c r="D249" s="23">
+      <c r="D249" s="22">
         <v>10</v>
       </c>
-      <c r="E249" s="5"/>
-      <c r="G249" s="24" t="s">
+      <c r="E249" s="5" t="str" cm="1">
+        <f t="array" ref="E249">_xlfn.TEXTJOIN("",,MID(G249,_xlfn.SEQUENCE(LEN(G249),1,LEN(G249),-1),1))</f>
+        <v>suoregnaD</v>
+      </c>
+      <c r="G249" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="H249" s="35"/>
-      <c r="I249" s="35"/>
+      <c r="H249" s="32"/>
+      <c r="I249" s="32"/>
     </row>
     <row r="250" spans="2:9" ht="23.25" customHeight="1">
       <c r="B250" s="15">
@@ -5558,15 +5739,18 @@
       <c r="C250" s="15">
         <v>6</v>
       </c>
-      <c r="D250" s="23">
+      <c r="D250" s="22">
         <v>10</v>
       </c>
-      <c r="E250" s="5"/>
-      <c r="G250" s="24" t="s">
+      <c r="E250" s="5" t="str" cm="1">
+        <f t="array" ref="E250">_xlfn.TEXTJOIN("",,MID(G250,_xlfn.SEQUENCE(LEN(G250),1,LEN(G250),-1),1))</f>
+        <v>citehtseA</v>
+      </c>
+      <c r="G250" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="H250" s="35"/>
-      <c r="I250" s="35"/>
+      <c r="H250" s="32"/>
+      <c r="I250" s="32"/>
     </row>
     <row r="251" spans="2:9" ht="23.25" customHeight="1">
       <c r="B251" s="15">
@@ -5575,43 +5759,46 @@
       <c r="C251" s="15">
         <v>6</v>
       </c>
-      <c r="D251" s="23">
+      <c r="D251" s="22">
         <v>10</v>
       </c>
-      <c r="E251" s="5"/>
-      <c r="G251" s="24" t="s">
+      <c r="E251" s="5" t="str" cm="1">
+        <f t="array" ref="E251">_xlfn.TEXTJOIN("",,MID(G251,_xlfn.SEQUENCE(LEN(G251),1,LEN(G251),-1),1))</f>
+        <v>elbatirahC</v>
+      </c>
+      <c r="G251" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="H251" s="35"/>
-      <c r="I251" s="35"/>
+      <c r="H251" s="32"/>
+      <c r="I251" s="32"/>
     </row>
     <row r="252" spans="2:9">
       <c r="E252" s="12"/>
-      <c r="H252" s="35"/>
-      <c r="I252" s="35"/>
+      <c r="H252" s="32"/>
+      <c r="I252" s="32"/>
     </row>
     <row r="253" spans="2:9" ht="31.2">
       <c r="B253" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C253" s="15">
         <f>C251</f>
         <v>6</v>
       </c>
-      <c r="D253" s="23">
+      <c r="D253" s="22">
         <v>0</v>
       </c>
-      <c r="E253" s="48" t="str">
+      <c r="E253" s="45" t="str">
         <f>_xlfn.TEXTJOIN(";",FALSE,E232:E251)</f>
-        <v>;;;;;;;;;;;;;;;;;;;</v>
-      </c>
-      <c r="H253" s="35"/>
-      <c r="I253" s="35"/>
+        <v>xobliam;erutnevdA;moorllaB;engapmahC;ylfrettuB;rewolfnuS;tropsnarT;pihsdneirF;lufrednoW;tnempiuqE;egdelwonK;evitceteD;egarohcnA;nworgrevO;esuohneerG;llafretaW;noituloveR;suoregnaD;citehtseA;elbatirahC</v>
+      </c>
+      <c r="H253" s="32"/>
+      <c r="I253" s="32"/>
     </row>
     <row r="254" spans="2:9" ht="15" thickBot="1">
       <c r="E254" s="12"/>
-      <c r="H254" s="35"/>
-      <c r="I254" s="35"/>
+      <c r="H254" s="32"/>
+      <c r="I254" s="32"/>
     </row>
     <row r="255" spans="2:9" ht="24.75" customHeight="1" thickBot="1">
       <c r="B255" s="3" t="s">
@@ -5621,39 +5808,39 @@
         <v>15</v>
       </c>
       <c r="D255" s="7"/>
-      <c r="E255" s="32"/>
-      <c r="G255" s="41"/>
-      <c r="H255" s="35"/>
-      <c r="I255" s="35"/>
+      <c r="E255" s="29"/>
+      <c r="G255" s="38"/>
+      <c r="H255" s="32"/>
+      <c r="I255" s="32"/>
     </row>
     <row r="256" spans="2:9" ht="15" customHeight="1">
       <c r="B256" s="18"/>
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
-      <c r="E256" s="32"/>
+      <c r="E256" s="29"/>
       <c r="G256" s="7"/>
-      <c r="H256" s="35"/>
-      <c r="I256" s="35"/>
+      <c r="H256" s="32"/>
+      <c r="I256" s="32"/>
     </row>
     <row r="257" spans="1:11" ht="15" customHeight="1">
       <c r="B257" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C257" s="7"/>
       <c r="D257" s="7"/>
-      <c r="E257" s="32"/>
+      <c r="E257" s="29"/>
       <c r="G257" s="7"/>
-      <c r="H257" s="35"/>
-      <c r="I257" s="35"/>
+      <c r="H257" s="32"/>
+      <c r="I257" s="32"/>
     </row>
     <row r="258" spans="1:11" ht="15" customHeight="1">
       <c r="A258" s="7"/>
-      <c r="B258" s="28" t="s">
-        <v>198</v>
+      <c r="B258" s="26" t="s">
+        <v>197</v>
       </c>
       <c r="C258" s="7"/>
       <c r="D258" s="7"/>
-      <c r="E258" s="34"/>
+      <c r="E258" s="31"/>
       <c r="G258" s="7"/>
       <c r="H258" s="7"/>
       <c r="I258" s="7"/>
@@ -5662,12 +5849,12 @@
     </row>
     <row r="259" spans="1:11" ht="15" customHeight="1">
       <c r="A259" s="7"/>
-      <c r="B259" s="28" t="s">
-        <v>199</v>
+      <c r="B259" s="26" t="s">
+        <v>198</v>
       </c>
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
-      <c r="E259" s="34"/>
+      <c r="E259" s="31"/>
       <c r="G259" s="7"/>
       <c r="H259" s="7"/>
       <c r="I259" s="7"/>
@@ -5676,12 +5863,12 @@
     </row>
     <row r="260" spans="1:11" ht="15" customHeight="1">
       <c r="A260" s="7"/>
-      <c r="B260" s="28" t="s">
-        <v>200</v>
+      <c r="B260" s="26" t="s">
+        <v>199</v>
       </c>
       <c r="C260" s="7"/>
       <c r="D260" s="7"/>
-      <c r="E260" s="34"/>
+      <c r="E260" s="31"/>
       <c r="G260" s="7"/>
       <c r="H260" s="7"/>
       <c r="I260" s="7"/>
@@ -5690,13 +5877,13 @@
     </row>
     <row r="261" spans="1:11" ht="15" customHeight="1">
       <c r="A261" s="7"/>
-      <c r="B261" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="C261" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="E261" s="34"/>
+      <c r="B261" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="C261" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="E261" s="31"/>
       <c r="G261" s="7"/>
       <c r="H261" s="7"/>
       <c r="I261" s="7"/>
@@ -5705,15 +5892,15 @@
     </row>
     <row r="262" spans="1:11" ht="15" customHeight="1">
       <c r="A262" s="7"/>
-      <c r="B262" s="45">
+      <c r="B262" s="42">
         <f>CODE("A")</f>
         <v>65</v>
       </c>
-      <c r="C262" s="45">
+      <c r="C262" s="42">
         <f>CODE("a")</f>
         <v>97</v>
       </c>
-      <c r="E262" s="34"/>
+      <c r="E262" s="31"/>
       <c r="G262" s="7"/>
       <c r="H262" s="7"/>
       <c r="I262" s="7"/>
@@ -5723,11 +5910,11 @@
     <row r="263" spans="1:11" ht="15" customHeight="1">
       <c r="A263" s="7"/>
       <c r="B263" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C263" s="7"/>
       <c r="D263" s="7"/>
-      <c r="E263" s="34"/>
+      <c r="E263" s="31"/>
       <c r="G263" s="7"/>
       <c r="H263" s="7"/>
       <c r="I263" s="7"/>
@@ -5739,8 +5926,8 @@
       <c r="B264" s="18"/>
       <c r="C264" s="7"/>
       <c r="D264" s="7"/>
-      <c r="E264" s="34"/>
-      <c r="G264" s="40"/>
+      <c r="E264" s="31"/>
+      <c r="G264" s="37"/>
       <c r="H264" s="7"/>
       <c r="I264" s="7"/>
       <c r="J264" s="7"/>
@@ -5783,13 +5970,13 @@
       <c r="C267" s="15">
         <v>7</v>
       </c>
-      <c r="D267" s="23">
+      <c r="D267" s="22">
         <v>0</v>
       </c>
       <c r="E267" s="5">
         <v>76</v>
       </c>
-      <c r="G267" s="24" t="s">
+      <c r="G267" s="23" t="s">
         <v>46</v>
       </c>
       <c r="H267" s="7"/>
@@ -5797,10 +5984,20 @@
       <c r="J267" s="7"/>
       <c r="K267" s="7"/>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" ht="23.4">
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
       <c r="D268" s="6"/>
+      <c r="E268" s="5" cm="1">
+        <f t="array" ref="E268">SUM(CODE(LOWER(MID(G268,_xlfn.SEQUENCE(LEN(G268)),1)))-CODE("a")+1)</f>
+        <v>76</v>
+      </c>
+      <c r="F268" s="8">
+        <v>5</v>
+      </c>
+      <c r="G268" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="H268" s="7"/>
       <c r="I268" s="7"/>
       <c r="J268" s="7"/>
@@ -5813,11 +6010,17 @@
       <c r="C269" s="15">
         <v>7</v>
       </c>
-      <c r="D269" s="23">
+      <c r="D269" s="22">
         <v>12</v>
       </c>
-      <c r="E269" s="5"/>
-      <c r="G269" s="24" t="s">
+      <c r="E269" s="5" cm="1">
+        <f t="array" ref="E269">SUM(CODE(LOWER(MID(G269,_xlfn.SEQUENCE(LEN(G269)),1)))-CODE("a")+1)</f>
+        <v>76</v>
+      </c>
+      <c r="F269" s="8">
+        <v>24</v>
+      </c>
+      <c r="G269" s="23" t="s">
         <v>47</v>
       </c>
       <c r="H269" s="7"/>
@@ -5832,11 +6035,17 @@
       <c r="C270" s="15">
         <v>7</v>
       </c>
-      <c r="D270" s="23">
+      <c r="D270" s="22">
         <v>12</v>
       </c>
-      <c r="E270" s="5"/>
-      <c r="G270" s="24" t="s">
+      <c r="E270" s="5" cm="1">
+        <f t="array" ref="E270">SUM(CODE(LOWER(MID(G270,_xlfn.SEQUENCE(LEN(G270)),1)))-CODE("a")+1)</f>
+        <v>110</v>
+      </c>
+      <c r="F270" s="8">
+        <v>1</v>
+      </c>
+      <c r="G270" s="23" t="s">
         <v>48</v>
       </c>
       <c r="H270" s="7"/>
@@ -5851,11 +6060,17 @@
       <c r="C271" s="15">
         <v>7</v>
       </c>
-      <c r="D271" s="23">
+      <c r="D271" s="22">
         <v>12</v>
       </c>
-      <c r="E271" s="5"/>
-      <c r="G271" s="24" t="s">
+      <c r="E271" s="5" cm="1">
+        <f t="array" ref="E271">SUM(CODE(LOWER(MID(G271,_xlfn.SEQUENCE(LEN(G271)),1)))-CODE("a")+1)</f>
+        <v>88</v>
+      </c>
+      <c r="F271" s="8">
+        <v>13</v>
+      </c>
+      <c r="G271" s="23" t="s">
         <v>49</v>
       </c>
       <c r="H271" s="7"/>
@@ -5870,11 +6085,17 @@
       <c r="C272" s="15">
         <v>7</v>
       </c>
-      <c r="D272" s="23">
+      <c r="D272" s="22">
         <v>12</v>
       </c>
-      <c r="E272" s="5"/>
-      <c r="G272" s="24" t="s">
+      <c r="E272" s="5" cm="1">
+        <f t="array" ref="E272">SUM(CODE(LOWER(MID(G272,_xlfn.SEQUENCE(LEN(G272)),1)))-CODE("a")+1)</f>
+        <v>68</v>
+      </c>
+      <c r="F272" s="8">
+        <v>16</v>
+      </c>
+      <c r="G272" s="23" t="s">
         <v>50</v>
       </c>
       <c r="H272" s="7"/>
@@ -5889,11 +6110,17 @@
       <c r="C273" s="15">
         <v>7</v>
       </c>
-      <c r="D273" s="23">
+      <c r="D273" s="22">
         <v>12</v>
       </c>
-      <c r="E273" s="5"/>
-      <c r="G273" s="24" t="s">
+      <c r="E273" s="5" cm="1">
+        <f t="array" ref="E273">SUM(CODE(LOWER(MID(G273,_xlfn.SEQUENCE(LEN(G273)),1)))-CODE("a")+1)</f>
+        <v>129</v>
+      </c>
+      <c r="F273" s="8">
+        <v>12</v>
+      </c>
+      <c r="G273" s="23" t="s">
         <v>51</v>
       </c>
       <c r="H273" s="7"/>
@@ -5908,11 +6135,17 @@
       <c r="C274" s="15">
         <v>7</v>
       </c>
-      <c r="D274" s="23">
+      <c r="D274" s="22">
         <v>12</v>
       </c>
-      <c r="E274" s="5"/>
-      <c r="G274" s="24" t="s">
+      <c r="E274" s="5" cm="1">
+        <f t="array" ref="E274">SUM(CODE(LOWER(MID(G274,_xlfn.SEQUENCE(LEN(G274)),1)))-CODE("a")+1)</f>
+        <v>133</v>
+      </c>
+      <c r="F274" s="8">
+        <v>5</v>
+      </c>
+      <c r="G274" s="23" t="s">
         <v>52</v>
       </c>
       <c r="H274" s="7"/>
@@ -5927,11 +6160,14 @@
       <c r="C275" s="15">
         <v>7</v>
       </c>
-      <c r="D275" s="23">
+      <c r="D275" s="22">
         <v>12</v>
       </c>
-      <c r="E275" s="5"/>
-      <c r="G275" s="24" t="s">
+      <c r="E275" s="5" cm="1">
+        <f t="array" ref="E275">SUM(CODE(LOWER(MID(G275,_xlfn.SEQUENCE(LEN(G275)),1)))-CODE("a")+1)</f>
+        <v>141</v>
+      </c>
+      <c r="G275" s="23" t="s">
         <v>53</v>
       </c>
       <c r="H275" s="7"/>
@@ -5946,11 +6182,14 @@
       <c r="C276" s="15">
         <v>7</v>
       </c>
-      <c r="D276" s="23">
+      <c r="D276" s="22">
         <v>12</v>
       </c>
-      <c r="E276" s="5"/>
-      <c r="G276" s="24" t="s">
+      <c r="E276" s="5" cm="1">
+        <f t="array" ref="E276">SUM(CODE(LOWER(MID(G276,_xlfn.SEQUENCE(LEN(G276)),1)))-CODE("a")+1)</f>
+        <v>108</v>
+      </c>
+      <c r="G276" s="23" t="s">
         <v>54</v>
       </c>
       <c r="H276" s="7"/>
@@ -5965,11 +6204,14 @@
       <c r="C277" s="15">
         <v>7</v>
       </c>
-      <c r="D277" s="23">
+      <c r="D277" s="22">
         <v>12</v>
       </c>
-      <c r="E277" s="5"/>
-      <c r="G277" s="24" t="s">
+      <c r="E277" s="5" cm="1">
+        <f t="array" ref="E277">SUM(CODE(LOWER(MID(G277,_xlfn.SEQUENCE(LEN(G277)),1)))-CODE("a")+1)</f>
+        <v>118</v>
+      </c>
+      <c r="G277" s="23" t="s">
         <v>55</v>
       </c>
       <c r="H277" s="7"/>
@@ -5984,11 +6226,14 @@
       <c r="C278" s="15">
         <v>7</v>
       </c>
-      <c r="D278" s="23">
+      <c r="D278" s="22">
         <v>12</v>
       </c>
-      <c r="E278" s="5"/>
-      <c r="G278" s="24" t="s">
+      <c r="E278" s="5" cm="1">
+        <f t="array" ref="E278">SUM(CODE(LOWER(MID(G278,_xlfn.SEQUENCE(LEN(G278)),1)))-CODE("a")+1)</f>
+        <v>120</v>
+      </c>
+      <c r="G278" s="23" t="s">
         <v>56</v>
       </c>
       <c r="H278" s="7"/>
@@ -6003,11 +6248,14 @@
       <c r="C279" s="15">
         <v>7</v>
       </c>
-      <c r="D279" s="23">
+      <c r="D279" s="22">
         <v>12</v>
       </c>
-      <c r="E279" s="5"/>
-      <c r="G279" s="24" t="s">
+      <c r="E279" s="5" cm="1">
+        <f t="array" ref="E279">SUM(CODE(LOWER(MID(G279,_xlfn.SEQUENCE(LEN(G279)),1)))-CODE("a")+1)</f>
+        <v>96</v>
+      </c>
+      <c r="G279" s="23" t="s">
         <v>57</v>
       </c>
       <c r="H279" s="7"/>
@@ -6022,11 +6270,14 @@
       <c r="C280" s="15">
         <v>7</v>
       </c>
-      <c r="D280" s="23">
+      <c r="D280" s="22">
         <v>12</v>
       </c>
-      <c r="E280" s="5"/>
-      <c r="G280" s="24" t="s">
+      <c r="E280" s="5" cm="1">
+        <f t="array" ref="E280">SUM(CODE(LOWER(MID(G280,_xlfn.SEQUENCE(LEN(G280)),1)))-CODE("a")+1)</f>
+        <v>93</v>
+      </c>
+      <c r="G280" s="23" t="s">
         <v>58</v>
       </c>
       <c r="H280" s="7"/>
@@ -6041,11 +6292,14 @@
       <c r="C281" s="15">
         <v>7</v>
       </c>
-      <c r="D281" s="23">
+      <c r="D281" s="22">
         <v>12</v>
       </c>
-      <c r="E281" s="5"/>
-      <c r="G281" s="24" t="s">
+      <c r="E281" s="5" cm="1">
+        <f t="array" ref="E281">SUM(CODE(LOWER(MID(G281,_xlfn.SEQUENCE(LEN(G281)),1)))-CODE("a")+1)</f>
+        <v>72</v>
+      </c>
+      <c r="G281" s="23" t="s">
         <v>59</v>
       </c>
       <c r="H281" s="7"/>
@@ -6060,11 +6314,14 @@
       <c r="C282" s="15">
         <v>7</v>
       </c>
-      <c r="D282" s="23">
+      <c r="D282" s="22">
         <v>12</v>
       </c>
-      <c r="E282" s="5"/>
-      <c r="G282" s="24" t="s">
+      <c r="E282" s="5" cm="1">
+        <f t="array" ref="E282">SUM(CODE(LOWER(MID(G282,_xlfn.SEQUENCE(LEN(G282)),1)))-CODE("a")+1)</f>
+        <v>137</v>
+      </c>
+      <c r="G282" s="23" t="s">
         <v>60</v>
       </c>
       <c r="H282" s="7"/>
@@ -6079,11 +6336,14 @@
       <c r="C283" s="15">
         <v>7</v>
       </c>
-      <c r="D283" s="23">
+      <c r="D283" s="22">
         <v>12</v>
       </c>
-      <c r="E283" s="5"/>
-      <c r="G283" s="24" t="s">
+      <c r="E283" s="5" cm="1">
+        <f t="array" ref="E283">SUM(CODE(LOWER(MID(G283,_xlfn.SEQUENCE(LEN(G283)),1)))-CODE("a")+1)</f>
+        <v>117</v>
+      </c>
+      <c r="G283" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H283" s="7"/>
@@ -6098,11 +6358,14 @@
       <c r="C284" s="15">
         <v>7</v>
       </c>
-      <c r="D284" s="23">
+      <c r="D284" s="22">
         <v>12</v>
       </c>
-      <c r="E284" s="5"/>
-      <c r="G284" s="24" t="s">
+      <c r="E284" s="5" cm="1">
+        <f t="array" ref="E284">SUM(CODE(LOWER(MID(G284,_xlfn.SEQUENCE(LEN(G284)),1)))-CODE("a")+1)</f>
+        <v>98</v>
+      </c>
+      <c r="G284" s="23" t="s">
         <v>62</v>
       </c>
       <c r="H284" s="7"/>
@@ -6117,11 +6380,14 @@
       <c r="C285" s="15">
         <v>7</v>
       </c>
-      <c r="D285" s="23">
+      <c r="D285" s="22">
         <v>12</v>
       </c>
-      <c r="E285" s="5"/>
-      <c r="G285" s="24" t="s">
+      <c r="E285" s="5" cm="1">
+        <f t="array" ref="E285">SUM(CODE(LOWER(MID(G285,_xlfn.SEQUENCE(LEN(G285)),1)))-CODE("a")+1)</f>
+        <v>151</v>
+      </c>
+      <c r="G285" s="23" t="s">
         <v>63</v>
       </c>
       <c r="H285" s="7"/>
@@ -6136,11 +6402,14 @@
       <c r="C286" s="15">
         <v>7</v>
       </c>
-      <c r="D286" s="23">
+      <c r="D286" s="22">
         <v>12</v>
       </c>
-      <c r="E286" s="5"/>
-      <c r="G286" s="24" t="s">
+      <c r="E286" s="5" cm="1">
+        <f t="array" ref="E286">SUM(CODE(LOWER(MID(G286,_xlfn.SEQUENCE(LEN(G286)),1)))-CODE("a")+1)</f>
+        <v>104</v>
+      </c>
+      <c r="G286" s="23" t="s">
         <v>64</v>
       </c>
       <c r="H286" s="7"/>
@@ -6155,11 +6424,14 @@
       <c r="C287" s="15">
         <v>7</v>
       </c>
-      <c r="D287" s="23">
+      <c r="D287" s="22">
         <v>12</v>
       </c>
-      <c r="E287" s="5"/>
-      <c r="G287" s="24" t="s">
+      <c r="E287" s="5" cm="1">
+        <f t="array" ref="E287">SUM(CODE(LOWER(MID(G287,_xlfn.SEQUENCE(LEN(G287)),1)))-CODE("a")+1)</f>
+        <v>90</v>
+      </c>
+      <c r="G287" s="23" t="s">
         <v>65</v>
       </c>
       <c r="H287" s="7"/>
@@ -6174,11 +6446,14 @@
       <c r="C288" s="15">
         <v>7</v>
       </c>
-      <c r="D288" s="23">
+      <c r="D288" s="22">
         <v>12</v>
       </c>
-      <c r="E288" s="5"/>
-      <c r="G288" s="24" t="s">
+      <c r="E288" s="5" cm="1">
+        <f t="array" ref="E288">SUM(CODE(LOWER(MID(G288,_xlfn.SEQUENCE(LEN(G288)),1)))-CODE("a")+1)</f>
+        <v>79</v>
+      </c>
+      <c r="G288" s="23" t="s">
         <v>66</v>
       </c>
       <c r="H288" s="7"/>
@@ -6194,18 +6469,18 @@
     </row>
     <row r="290" spans="2:11" ht="31.2">
       <c r="B290" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C290" s="15">
         <f>C288</f>
         <v>7</v>
       </c>
-      <c r="D290" s="23">
+      <c r="D290" s="22">
         <v>0</v>
       </c>
-      <c r="E290" s="48" t="str">
+      <c r="E290" s="45" t="str">
         <f>_xlfn.TEXTJOIN(";",FALSE,E269:E288)</f>
-        <v>;;;;;;;;;;;;;;;;;;;</v>
+        <v>76;110;88;68;129;133;141;108;118;120;96;93;72;137;117;98;151;104;90;79</v>
       </c>
     </row>
   </sheetData>

--- a/Text_Functions_Case.xlsx
+++ b/Text_Functions_Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0024B4EE-280A-4BE4-9AE6-4214C6982BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBEEF30-C109-4C50-85A0-A43FACF1A7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D370DF4-3C71-4D6D-AE9D-E6E375992910}"/>
+    <workbookView xWindow="3000" yWindow="1212" windowWidth="17280" windowHeight="8880" xr2:uid="{4D370DF4-3C71-4D6D-AE9D-E6E375992910}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -1730,8 +1730,8 @@
   </sheetPr>
   <dimension ref="A1:K290"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A275" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E31:E32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.4"/>
